--- a/Chunk7-Usability/method_scoring.xlsx
+++ b/Chunk7-Usability/method_scoring.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/duohongrui/Desktop/simbenchmark/Chunk7-Usability/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFD416EE-BB84-2342-B095-4FCA070BE4A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CB6476C-759D-A944-BC8A-212AC3265566}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{CA7C452C-7A53-8B4D-B1F8-0FF38FECB6A5}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
   <si>
     <t>Open source</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -288,6 +288,54 @@
   </si>
   <si>
     <t>scGAN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PROSSTT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TedSim</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dyntoy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dyngen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SymSim</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VeloSim</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MFA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phenopath</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Splat-path</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SplatPop-path</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ESCO-tree</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ESCO-traj</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -676,11 +724,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F0F0ABD-1331-E548-9824-1B9EE713056C}">
-  <dimension ref="A1:AI31"/>
+  <dimension ref="A1:AI43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="143" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="H1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="K19" sqref="K19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1204,7 +1252,7 @@
         <v>1</v>
       </c>
       <c r="R5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S5" s="2">
         <v>1</v>
@@ -3899,7 +3947,7 @@
         <v>1</v>
       </c>
       <c r="F31" s="2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G31" s="2">
         <v>1</v>
@@ -3984,6 +4032,462 @@
       </c>
       <c r="AI31" s="2">
         <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:35">
+      <c r="A32" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B32" s="2">
+        <v>1</v>
+      </c>
+      <c r="C32" s="2">
+        <v>1</v>
+      </c>
+      <c r="D32" s="2">
+        <v>1</v>
+      </c>
+      <c r="E32" s="2">
+        <v>1</v>
+      </c>
+      <c r="F32" s="2">
+        <v>1</v>
+      </c>
+      <c r="G32" s="2">
+        <v>1</v>
+      </c>
+      <c r="H32" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="I32" s="2">
+        <v>1</v>
+      </c>
+      <c r="J32" s="2">
+        <v>1</v>
+      </c>
+      <c r="K32" s="2">
+        <v>1</v>
+      </c>
+      <c r="L32" s="2">
+        <v>1</v>
+      </c>
+      <c r="M32" s="2">
+        <v>1</v>
+      </c>
+      <c r="N32" s="2">
+        <v>1</v>
+      </c>
+      <c r="O32" s="2">
+        <v>1</v>
+      </c>
+      <c r="P32" s="2">
+        <v>1</v>
+      </c>
+      <c r="R32" s="2">
+        <v>0</v>
+      </c>
+      <c r="S32" s="2">
+        <v>1</v>
+      </c>
+      <c r="T32" s="2">
+        <v>0</v>
+      </c>
+      <c r="U32" s="2">
+        <v>0</v>
+      </c>
+      <c r="V32" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="W32" s="2">
+        <v>1</v>
+      </c>
+      <c r="X32" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y32" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="Z32" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="AA32" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB32" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC32" s="2">
+        <v>1</v>
+      </c>
+      <c r="AD32" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE32" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF32" s="2">
+        <v>1</v>
+      </c>
+      <c r="AG32" s="2">
+        <v>1</v>
+      </c>
+      <c r="AH32" s="2">
+        <v>488</v>
+      </c>
+      <c r="AI32" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:35">
+      <c r="A33" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B33" s="2">
+        <v>1</v>
+      </c>
+      <c r="C33" s="2">
+        <v>1</v>
+      </c>
+      <c r="D33" s="2">
+        <v>1</v>
+      </c>
+      <c r="E33" s="2">
+        <v>1</v>
+      </c>
+      <c r="F33" s="2">
+        <v>1</v>
+      </c>
+      <c r="G33" s="2">
+        <v>1</v>
+      </c>
+      <c r="H33" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="I33" s="2">
+        <v>1</v>
+      </c>
+      <c r="J33" s="2">
+        <v>1</v>
+      </c>
+      <c r="K33" s="2">
+        <v>1</v>
+      </c>
+      <c r="L33" s="2">
+        <v>1</v>
+      </c>
+      <c r="M33" s="2">
+        <v>1</v>
+      </c>
+      <c r="N33" s="2">
+        <v>1</v>
+      </c>
+      <c r="O33" s="2">
+        <v>1</v>
+      </c>
+      <c r="P33" s="2">
+        <v>1</v>
+      </c>
+      <c r="R33" s="2">
+        <v>0</v>
+      </c>
+      <c r="S33" s="2">
+        <v>0</v>
+      </c>
+      <c r="T33" s="2">
+        <v>0</v>
+      </c>
+      <c r="U33" s="2">
+        <v>0</v>
+      </c>
+      <c r="V33" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="W33" s="2">
+        <v>1</v>
+      </c>
+      <c r="X33" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y33" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="Z33" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="AA33" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB33" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC33" s="2">
+        <v>1</v>
+      </c>
+      <c r="AD33" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE33" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF33" s="2">
+        <v>1</v>
+      </c>
+      <c r="AG33" s="2">
+        <v>1</v>
+      </c>
+      <c r="AH33" s="2">
+        <v>2</v>
+      </c>
+      <c r="AI33" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:35">
+      <c r="A34" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B34" s="2">
+        <v>1</v>
+      </c>
+      <c r="C34" s="2">
+        <v>1</v>
+      </c>
+      <c r="D34" s="2">
+        <v>1</v>
+      </c>
+      <c r="E34" s="2">
+        <v>1</v>
+      </c>
+      <c r="F34" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="G34" s="2">
+        <v>1</v>
+      </c>
+      <c r="H34" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="I34" s="2">
+        <v>1</v>
+      </c>
+      <c r="J34" s="2">
+        <v>1</v>
+      </c>
+      <c r="K34" s="2">
+        <v>1</v>
+      </c>
+      <c r="L34" s="2">
+        <v>1</v>
+      </c>
+      <c r="M34" s="2">
+        <v>1</v>
+      </c>
+      <c r="N34" s="2">
+        <v>1</v>
+      </c>
+      <c r="O34" s="2">
+        <v>1</v>
+      </c>
+      <c r="P34" s="2">
+        <v>1</v>
+      </c>
+      <c r="R34" s="2">
+        <v>0</v>
+      </c>
+      <c r="S34" s="2">
+        <v>0</v>
+      </c>
+      <c r="T34" s="2">
+        <v>0</v>
+      </c>
+      <c r="U34" s="2">
+        <v>0</v>
+      </c>
+      <c r="V34" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="W34" s="2">
+        <v>1</v>
+      </c>
+      <c r="X34" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="Y34" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="Z34" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="AA34" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB34" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC34" s="2">
+        <v>1</v>
+      </c>
+      <c r="AD34" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE34" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF34" s="2">
+        <v>1</v>
+      </c>
+      <c r="AG34" s="2">
+        <v>1</v>
+      </c>
+      <c r="AH34" s="2">
+        <v>8</v>
+      </c>
+      <c r="AI34" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:35">
+      <c r="A35" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B35" s="2">
+        <v>1</v>
+      </c>
+      <c r="C35" s="2">
+        <v>1</v>
+      </c>
+      <c r="D35" s="2">
+        <v>1</v>
+      </c>
+      <c r="E35" s="2">
+        <v>1</v>
+      </c>
+      <c r="F35" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="G35" s="2">
+        <v>1</v>
+      </c>
+      <c r="H35" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="I35" s="2">
+        <v>1</v>
+      </c>
+      <c r="J35" s="2">
+        <v>1</v>
+      </c>
+      <c r="K35" s="2">
+        <v>1</v>
+      </c>
+      <c r="L35" s="2">
+        <v>1</v>
+      </c>
+      <c r="M35" s="2">
+        <v>1</v>
+      </c>
+      <c r="N35" s="2">
+        <v>1</v>
+      </c>
+      <c r="O35" s="2">
+        <v>1</v>
+      </c>
+      <c r="P35" s="2">
+        <v>1</v>
+      </c>
+      <c r="R35" s="2">
+        <v>0</v>
+      </c>
+      <c r="S35" s="2">
+        <v>0</v>
+      </c>
+      <c r="T35" s="2">
+        <v>0</v>
+      </c>
+      <c r="U35" s="2">
+        <v>0</v>
+      </c>
+      <c r="V35" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="W35" s="2">
+        <v>1</v>
+      </c>
+      <c r="X35" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="Y35" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="Z35" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="AA35" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB35" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC35" s="2">
+        <v>1</v>
+      </c>
+      <c r="AD35" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE35" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF35" s="2">
+        <v>1</v>
+      </c>
+      <c r="AG35" s="2">
+        <v>1</v>
+      </c>
+      <c r="AH35" s="2">
+        <v>8</v>
+      </c>
+      <c r="AI35" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:35">
+      <c r="A36" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="37" spans="1:35">
+      <c r="A37" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="38" spans="1:35">
+      <c r="A38" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="39" spans="1:35">
+      <c r="A39" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="40" spans="1:35">
+      <c r="A40" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="41" spans="1:35">
+      <c r="A41" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="42" spans="1:35">
+      <c r="A42" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="43" spans="1:35">
+      <c r="A43" s="2" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/Chunk7-Usability/method_scoring.xlsx
+++ b/Chunk7-Usability/method_scoring.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/duohongrui/Desktop/simbenchmark/Chunk7-Usability/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CB6476C-759D-A944-BC8A-212AC3265566}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{444EFBD7-26D5-7145-89B5-4169978E5C69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{CA7C452C-7A53-8B4D-B1F8-0FF38FECB6A5}"/>
+    <workbookView xWindow="-30240" yWindow="1800" windowWidth="30240" windowHeight="18880" xr2:uid="{CA7C452C-7A53-8B4D-B1F8-0FF38FECB6A5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -728,7 +728,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E28" sqref="E28"/>
+      <selection pane="topRight" activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2211,6 +2211,9 @@
       <c r="P14" s="2">
         <v>0.5</v>
       </c>
+      <c r="Q14" s="2">
+        <v>0</v>
+      </c>
       <c r="R14" s="2">
         <v>1</v>
       </c>
@@ -2315,6 +2318,9 @@
       <c r="P15" s="2">
         <v>1</v>
       </c>
+      <c r="Q15" s="2">
+        <v>1</v>
+      </c>
       <c r="R15" s="2">
         <v>0</v>
       </c>
@@ -2419,6 +2425,9 @@
       <c r="P16" s="2">
         <v>1</v>
       </c>
+      <c r="Q16" s="2">
+        <v>0</v>
+      </c>
       <c r="R16" s="2">
         <v>1</v>
       </c>
@@ -2523,6 +2532,9 @@
       <c r="P17" s="2">
         <v>0.5</v>
       </c>
+      <c r="Q17" s="2">
+        <v>0</v>
+      </c>
       <c r="R17" s="2">
         <v>1</v>
       </c>
@@ -2627,6 +2639,9 @@
       <c r="P18" s="2">
         <v>1</v>
       </c>
+      <c r="Q18" s="2">
+        <v>1</v>
+      </c>
       <c r="R18" s="2">
         <v>0</v>
       </c>
@@ -2731,6 +2746,9 @@
       <c r="P19" s="2">
         <v>1</v>
       </c>
+      <c r="Q19" s="2">
+        <v>0</v>
+      </c>
       <c r="R19" s="2">
         <v>0</v>
       </c>
@@ -2835,6 +2853,9 @@
       <c r="P20" s="2">
         <v>0.5</v>
       </c>
+      <c r="Q20" s="2">
+        <v>0</v>
+      </c>
       <c r="R20" s="2">
         <v>0</v>
       </c>
@@ -2939,6 +2960,9 @@
       <c r="P21" s="2">
         <v>1</v>
       </c>
+      <c r="Q21" s="2">
+        <v>1</v>
+      </c>
       <c r="R21" s="2">
         <v>0</v>
       </c>
@@ -3043,6 +3067,9 @@
       <c r="P22" s="2">
         <v>1</v>
       </c>
+      <c r="Q22" s="2">
+        <v>0</v>
+      </c>
       <c r="R22" s="2">
         <v>0</v>
       </c>
@@ -3147,6 +3174,9 @@
       <c r="P23" s="2">
         <v>1</v>
       </c>
+      <c r="Q23" s="2">
+        <v>0</v>
+      </c>
       <c r="R23" s="2">
         <v>1</v>
       </c>
@@ -3251,6 +3281,9 @@
       <c r="P24" s="2">
         <v>1</v>
       </c>
+      <c r="Q24" s="2">
+        <v>0</v>
+      </c>
       <c r="R24" s="2">
         <v>1</v>
       </c>
@@ -3355,6 +3388,9 @@
       <c r="P25" s="2">
         <v>1</v>
       </c>
+      <c r="Q25" s="2">
+        <v>1</v>
+      </c>
       <c r="R25" s="2">
         <v>1</v>
       </c>
@@ -3459,6 +3495,9 @@
       <c r="P26" s="2">
         <v>1</v>
       </c>
+      <c r="Q26" s="2">
+        <v>1</v>
+      </c>
       <c r="R26" s="2">
         <v>0</v>
       </c>
@@ -3563,6 +3602,9 @@
       <c r="P27" s="2">
         <v>1</v>
       </c>
+      <c r="Q27" s="2">
+        <v>0</v>
+      </c>
       <c r="R27" s="2">
         <v>0</v>
       </c>
@@ -3667,6 +3709,9 @@
       <c r="P28" s="2">
         <v>1</v>
       </c>
+      <c r="Q28" s="2">
+        <v>0</v>
+      </c>
       <c r="R28" s="2">
         <v>0</v>
       </c>
@@ -3771,6 +3816,9 @@
       <c r="P29" s="2">
         <v>1</v>
       </c>
+      <c r="Q29" s="2">
+        <v>1</v>
+      </c>
       <c r="R29" s="2">
         <v>0</v>
       </c>
@@ -3875,6 +3923,9 @@
       <c r="P30" s="2">
         <v>1</v>
       </c>
+      <c r="Q30" s="2">
+        <v>0</v>
+      </c>
       <c r="R30" s="2">
         <v>0</v>
       </c>
@@ -3979,6 +4030,9 @@
       <c r="P31" s="2">
         <v>1</v>
       </c>
+      <c r="Q31" s="2">
+        <v>1</v>
+      </c>
       <c r="R31" s="2">
         <v>0</v>
       </c>
@@ -4083,6 +4137,9 @@
       <c r="P32" s="2">
         <v>1</v>
       </c>
+      <c r="Q32" s="2">
+        <v>1</v>
+      </c>
       <c r="R32" s="2">
         <v>0</v>
       </c>
@@ -4187,6 +4244,9 @@
       <c r="P33" s="2">
         <v>1</v>
       </c>
+      <c r="Q33" s="2">
+        <v>1</v>
+      </c>
       <c r="R33" s="2">
         <v>0</v>
       </c>
@@ -4291,6 +4351,9 @@
       <c r="P34" s="2">
         <v>1</v>
       </c>
+      <c r="Q34" s="2">
+        <v>1</v>
+      </c>
       <c r="R34" s="2">
         <v>0</v>
       </c>
@@ -4395,6 +4458,9 @@
       <c r="P35" s="2">
         <v>1</v>
       </c>
+      <c r="Q35" s="2">
+        <v>1</v>
+      </c>
       <c r="R35" s="2">
         <v>0</v>
       </c>
@@ -4454,40 +4520,856 @@
       <c r="A36" s="2" t="s">
         <v>65</v>
       </c>
+      <c r="B36" s="2">
+        <v>1</v>
+      </c>
+      <c r="C36" s="2">
+        <v>1</v>
+      </c>
+      <c r="D36" s="2">
+        <v>1</v>
+      </c>
+      <c r="E36" s="2">
+        <v>1</v>
+      </c>
+      <c r="F36" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="G36" s="2">
+        <v>1</v>
+      </c>
+      <c r="H36" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="I36" s="2">
+        <v>1</v>
+      </c>
+      <c r="J36" s="2">
+        <v>1</v>
+      </c>
+      <c r="K36" s="2">
+        <v>1</v>
+      </c>
+      <c r="L36" s="2">
+        <v>1</v>
+      </c>
+      <c r="M36" s="2">
+        <v>1</v>
+      </c>
+      <c r="N36" s="2">
+        <v>1</v>
+      </c>
+      <c r="O36" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="P36" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q36" s="2">
+        <v>1</v>
+      </c>
+      <c r="R36" s="2">
+        <v>1</v>
+      </c>
+      <c r="S36" s="2">
+        <v>1</v>
+      </c>
+      <c r="T36" s="2">
+        <v>1</v>
+      </c>
+      <c r="U36" s="2">
+        <v>1</v>
+      </c>
+      <c r="V36" s="2">
+        <v>1</v>
+      </c>
+      <c r="W36" s="2">
+        <v>1</v>
+      </c>
+      <c r="X36" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y36" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z36" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="AA36" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB36" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC36" s="2">
+        <v>1</v>
+      </c>
+      <c r="AD36" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE36" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF36" s="2">
+        <v>1</v>
+      </c>
+      <c r="AG36" s="2">
+        <v>1</v>
+      </c>
+      <c r="AH36" s="2">
+        <v>29</v>
+      </c>
+      <c r="AI36" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="37" spans="1:35">
       <c r="A37" s="2" t="s">
         <v>66</v>
       </c>
+      <c r="B37" s="2">
+        <v>1</v>
+      </c>
+      <c r="C37" s="2">
+        <v>1</v>
+      </c>
+      <c r="D37" s="2">
+        <v>1</v>
+      </c>
+      <c r="E37" s="2">
+        <v>0</v>
+      </c>
+      <c r="F37" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="G37" s="2">
+        <v>1</v>
+      </c>
+      <c r="H37" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="I37" s="2">
+        <v>1</v>
+      </c>
+      <c r="J37" s="2">
+        <v>1</v>
+      </c>
+      <c r="K37" s="2">
+        <v>1</v>
+      </c>
+      <c r="L37" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="M37" s="2">
+        <v>1</v>
+      </c>
+      <c r="N37" s="2">
+        <v>1</v>
+      </c>
+      <c r="O37" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="P37" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q37" s="2">
+        <v>0</v>
+      </c>
+      <c r="R37" s="2">
+        <v>1</v>
+      </c>
+      <c r="S37" s="2">
+        <v>1</v>
+      </c>
+      <c r="T37" s="2">
+        <v>1</v>
+      </c>
+      <c r="U37" s="2">
+        <v>1</v>
+      </c>
+      <c r="V37" s="2">
+        <v>0</v>
+      </c>
+      <c r="W37" s="2">
+        <v>1</v>
+      </c>
+      <c r="X37" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y37" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="Z37" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="AA37" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB37" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC37" s="2">
+        <v>1</v>
+      </c>
+      <c r="AD37" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE37" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF37" s="2">
+        <v>1</v>
+      </c>
+      <c r="AG37" s="2">
+        <v>1</v>
+      </c>
+      <c r="AH37" s="2">
+        <v>1</v>
+      </c>
+      <c r="AI37" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="38" spans="1:35">
       <c r="A38" s="2" t="s">
         <v>67</v>
       </c>
+      <c r="B38" s="2">
+        <v>1</v>
+      </c>
+      <c r="C38" s="2">
+        <v>1</v>
+      </c>
+      <c r="D38" s="2">
+        <v>1</v>
+      </c>
+      <c r="E38" s="2">
+        <v>1</v>
+      </c>
+      <c r="F38" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="G38" s="2">
+        <v>1</v>
+      </c>
+      <c r="H38" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="I38" s="2">
+        <v>1</v>
+      </c>
+      <c r="J38" s="2">
+        <v>1</v>
+      </c>
+      <c r="K38" s="2">
+        <v>1</v>
+      </c>
+      <c r="L38" s="2">
+        <v>1</v>
+      </c>
+      <c r="M38" s="2">
+        <v>1</v>
+      </c>
+      <c r="N38" s="2">
+        <v>1</v>
+      </c>
+      <c r="O38" s="2">
+        <v>1</v>
+      </c>
+      <c r="P38" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q38" s="2">
+        <v>0</v>
+      </c>
+      <c r="R38" s="2">
+        <v>0</v>
+      </c>
+      <c r="S38" s="2">
+        <v>0</v>
+      </c>
+      <c r="T38" s="2">
+        <v>0</v>
+      </c>
+      <c r="U38" s="2">
+        <v>0</v>
+      </c>
+      <c r="V38" s="2">
+        <v>1</v>
+      </c>
+      <c r="W38" s="2">
+        <v>1</v>
+      </c>
+      <c r="X38" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="Y38" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="Z38" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="AA38" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB38" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC38" s="2">
+        <v>1</v>
+      </c>
+      <c r="AD38" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE38" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF38" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG38" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH38" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI38" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="39" spans="1:35">
       <c r="A39" s="2" t="s">
         <v>68</v>
       </c>
+      <c r="B39" s="2">
+        <v>1</v>
+      </c>
+      <c r="C39" s="2">
+        <v>1</v>
+      </c>
+      <c r="D39" s="2">
+        <v>1</v>
+      </c>
+      <c r="E39" s="2">
+        <v>1</v>
+      </c>
+      <c r="F39" s="2">
+        <v>1</v>
+      </c>
+      <c r="G39" s="2">
+        <v>1</v>
+      </c>
+      <c r="H39" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="I39" s="2">
+        <v>1</v>
+      </c>
+      <c r="J39" s="2">
+        <v>1</v>
+      </c>
+      <c r="K39" s="2">
+        <v>1</v>
+      </c>
+      <c r="L39" s="2">
+        <v>1</v>
+      </c>
+      <c r="M39" s="2">
+        <v>1</v>
+      </c>
+      <c r="N39" s="2">
+        <v>1</v>
+      </c>
+      <c r="O39" s="2">
+        <v>1</v>
+      </c>
+      <c r="P39" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q39" s="2">
+        <v>0</v>
+      </c>
+      <c r="R39" s="2">
+        <v>1</v>
+      </c>
+      <c r="S39" s="2">
+        <v>1</v>
+      </c>
+      <c r="T39" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="U39" s="2">
+        <v>1</v>
+      </c>
+      <c r="V39" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="W39" s="2">
+        <v>1</v>
+      </c>
+      <c r="X39" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y39" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z39" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="AA39" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB39" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC39" s="2">
+        <v>1</v>
+      </c>
+      <c r="AD39" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE39" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF39" s="2">
+        <v>1</v>
+      </c>
+      <c r="AG39" s="2">
+        <v>1</v>
+      </c>
+      <c r="AH39" s="2">
+        <v>25</v>
+      </c>
+      <c r="AI39" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="40" spans="1:35">
       <c r="A40" s="2" t="s">
         <v>69</v>
       </c>
+      <c r="B40" s="2">
+        <v>1</v>
+      </c>
+      <c r="C40" s="2">
+        <v>1</v>
+      </c>
+      <c r="D40" s="2">
+        <v>1</v>
+      </c>
+      <c r="E40" s="2">
+        <v>1</v>
+      </c>
+      <c r="F40" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="G40" s="2">
+        <v>1</v>
+      </c>
+      <c r="H40" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="I40" s="2">
+        <v>1</v>
+      </c>
+      <c r="J40" s="2">
+        <v>1</v>
+      </c>
+      <c r="K40" s="2">
+        <v>1</v>
+      </c>
+      <c r="L40" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="M40" s="2">
+        <v>1</v>
+      </c>
+      <c r="N40" s="2">
+        <v>1</v>
+      </c>
+      <c r="O40" s="2">
+        <v>1</v>
+      </c>
+      <c r="P40" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q40" s="2">
+        <v>1</v>
+      </c>
+      <c r="R40" s="2">
+        <v>1</v>
+      </c>
+      <c r="S40" s="2">
+        <v>1</v>
+      </c>
+      <c r="T40" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="U40" s="2">
+        <v>1</v>
+      </c>
+      <c r="V40" s="2">
+        <v>1</v>
+      </c>
+      <c r="W40" s="2">
+        <v>1</v>
+      </c>
+      <c r="X40" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y40" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="Z40" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="AA40" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB40" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC40" s="2">
+        <v>1</v>
+      </c>
+      <c r="AD40" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE40" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF40" s="2">
+        <v>1</v>
+      </c>
+      <c r="AG40" s="2">
+        <v>1</v>
+      </c>
+      <c r="AH40" s="2">
+        <v>376</v>
+      </c>
+      <c r="AI40" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="41" spans="1:35">
       <c r="A41" s="2" t="s">
         <v>70</v>
       </c>
+      <c r="B41" s="2">
+        <v>1</v>
+      </c>
+      <c r="C41" s="2">
+        <v>1</v>
+      </c>
+      <c r="D41" s="2">
+        <v>1</v>
+      </c>
+      <c r="E41" s="2">
+        <v>1</v>
+      </c>
+      <c r="F41" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="G41" s="2">
+        <v>1</v>
+      </c>
+      <c r="H41" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="I41" s="2">
+        <v>1</v>
+      </c>
+      <c r="J41" s="2">
+        <v>1</v>
+      </c>
+      <c r="K41" s="2">
+        <v>1</v>
+      </c>
+      <c r="L41" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="M41" s="2">
+        <v>1</v>
+      </c>
+      <c r="N41" s="2">
+        <v>1</v>
+      </c>
+      <c r="O41" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="P41" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q41" s="2">
+        <v>1</v>
+      </c>
+      <c r="R41" s="2">
+        <v>0</v>
+      </c>
+      <c r="S41" s="2">
+        <v>1</v>
+      </c>
+      <c r="T41" s="2">
+        <v>1</v>
+      </c>
+      <c r="U41" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="V41" s="2">
+        <v>1</v>
+      </c>
+      <c r="W41" s="2">
+        <v>1</v>
+      </c>
+      <c r="X41" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="Y41" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="Z41" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="AA41" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB41" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC41" s="2">
+        <v>1</v>
+      </c>
+      <c r="AD41" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE41" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF41" s="2">
+        <v>1</v>
+      </c>
+      <c r="AG41" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH41" s="2">
+        <v>3</v>
+      </c>
+      <c r="AI41" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="42" spans="1:35">
       <c r="A42" s="2" t="s">
         <v>71</v>
       </c>
+      <c r="B42" s="2">
+        <v>1</v>
+      </c>
+      <c r="C42" s="2">
+        <v>1</v>
+      </c>
+      <c r="D42" s="2">
+        <v>1</v>
+      </c>
+      <c r="E42" s="2">
+        <v>1</v>
+      </c>
+      <c r="F42" s="2">
+        <v>1</v>
+      </c>
+      <c r="G42" s="2">
+        <v>1</v>
+      </c>
+      <c r="H42" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="I42" s="2">
+        <v>1</v>
+      </c>
+      <c r="J42" s="2">
+        <v>1</v>
+      </c>
+      <c r="K42" s="2">
+        <v>1</v>
+      </c>
+      <c r="L42" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="M42" s="2">
+        <v>1</v>
+      </c>
+      <c r="N42" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="O42" s="2">
+        <v>1</v>
+      </c>
+      <c r="P42" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q42" s="2">
+        <v>1</v>
+      </c>
+      <c r="R42" s="2">
+        <v>0</v>
+      </c>
+      <c r="S42" s="2">
+        <v>1</v>
+      </c>
+      <c r="T42" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="U42" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="V42" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="W42" s="2">
+        <v>1</v>
+      </c>
+      <c r="X42" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y42" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="Z42" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA42" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB42" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC42" s="2">
+        <v>1</v>
+      </c>
+      <c r="AD42" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE42" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF42" s="2">
+        <v>1</v>
+      </c>
+      <c r="AG42" s="2">
+        <v>1</v>
+      </c>
+      <c r="AH42" s="2">
+        <v>24</v>
+      </c>
+      <c r="AI42" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="43" spans="1:35">
       <c r="A43" s="2" t="s">
         <v>72</v>
+      </c>
+      <c r="B43" s="2">
+        <v>1</v>
+      </c>
+      <c r="C43" s="2">
+        <v>1</v>
+      </c>
+      <c r="D43" s="2">
+        <v>1</v>
+      </c>
+      <c r="E43" s="2">
+        <v>1</v>
+      </c>
+      <c r="F43" s="2">
+        <v>1</v>
+      </c>
+      <c r="G43" s="2">
+        <v>1</v>
+      </c>
+      <c r="H43" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="I43" s="2">
+        <v>1</v>
+      </c>
+      <c r="J43" s="2">
+        <v>1</v>
+      </c>
+      <c r="K43" s="2">
+        <v>1</v>
+      </c>
+      <c r="L43" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="M43" s="2">
+        <v>1</v>
+      </c>
+      <c r="N43" s="2">
+        <v>1</v>
+      </c>
+      <c r="O43" s="2">
+        <v>1</v>
+      </c>
+      <c r="P43" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q43" s="2">
+        <v>1</v>
+      </c>
+      <c r="R43" s="2">
+        <v>0</v>
+      </c>
+      <c r="S43" s="2">
+        <v>1</v>
+      </c>
+      <c r="T43" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="U43" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="V43" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="W43" s="2">
+        <v>1</v>
+      </c>
+      <c r="X43" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y43" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="Z43" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA43" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB43" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC43" s="2">
+        <v>1</v>
+      </c>
+      <c r="AD43" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE43" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF43" s="2">
+        <v>1</v>
+      </c>
+      <c r="AG43" s="2">
+        <v>1</v>
+      </c>
+      <c r="AH43" s="2">
+        <v>24</v>
+      </c>
+      <c r="AI43" s="2">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Chunk7-Usability/method_scoring.xlsx
+++ b/Chunk7-Usability/method_scoring.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/duohongrui/Desktop/simbenchmark/Chunk7-Usability/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{444EFBD7-26D5-7145-89B5-4169978E5C69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11ED2C16-3F03-E841-B201-36DEE625DE24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-30240" yWindow="1800" windowWidth="30240" windowHeight="18880" xr2:uid="{CA7C452C-7A53-8B4D-B1F8-0FF38FECB6A5}"/>
   </bookViews>
@@ -728,7 +728,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C24" sqref="C24"/>
+      <selection pane="topRight" activeCell="K30" sqref="K30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>

--- a/Chunk7-Usability/method_scoring.xlsx
+++ b/Chunk7-Usability/method_scoring.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/duohongrui/Desktop/simbenchmark/Chunk7-Usability/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11ED2C16-3F03-E841-B201-36DEE625DE24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F0FCC4C-A6DE-A94C-A401-AA318D4E5B48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-30240" yWindow="1800" windowWidth="30240" windowHeight="18880" xr2:uid="{CA7C452C-7A53-8B4D-B1F8-0FF38FECB6A5}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{CA7C452C-7A53-8B4D-B1F8-0FF38FECB6A5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -139,10 +139,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Demostrations</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>Function explaination</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -167,10 +163,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Supplementory files</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>Method</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -337,6 +329,14 @@
   <si>
     <t>ESCO-traj</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Supplementary files</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Demonstrations</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -727,8 +727,8 @@
   <dimension ref="A1:AI43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="K30" sqref="K30"/>
+      <pane xSplit="1" topLeftCell="U1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AB6" sqref="AB6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -773,7 +773,7 @@
   <sheetData>
     <row r="1" spans="1:35">
       <c r="A1" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -854,33 +854,33 @@
         <v>25</v>
       </c>
       <c r="AB1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AH1" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="AI1" s="1" t="s">
-        <v>33</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:35">
       <c r="A2" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B2" s="2">
         <v>1</v>
@@ -987,7 +987,7 @@
     </row>
     <row r="3" spans="1:35">
       <c r="A3" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B3" s="2">
         <v>1</v>
@@ -1094,7 +1094,7 @@
     </row>
     <row r="4" spans="1:35">
       <c r="A4" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B4" s="2">
         <v>1</v>
@@ -1201,7 +1201,7 @@
     </row>
     <row r="5" spans="1:35">
       <c r="A5" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B5" s="2">
         <v>1</v>
@@ -1308,7 +1308,7 @@
     </row>
     <row r="6" spans="1:35">
       <c r="A6" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B6" s="2">
         <v>1</v>
@@ -1415,7 +1415,7 @@
     </row>
     <row r="7" spans="1:35">
       <c r="A7" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B7" s="2">
         <v>1</v>
@@ -1522,7 +1522,7 @@
     </row>
     <row r="8" spans="1:35">
       <c r="A8" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B8" s="2">
         <v>1</v>
@@ -1629,7 +1629,7 @@
     </row>
     <row r="9" spans="1:35">
       <c r="A9" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B9" s="2">
         <v>1</v>
@@ -1736,7 +1736,7 @@
     </row>
     <row r="10" spans="1:35">
       <c r="A10" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B10" s="2">
         <v>1</v>
@@ -1843,7 +1843,7 @@
     </row>
     <row r="11" spans="1:35">
       <c r="A11" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B11" s="2">
         <v>1</v>
@@ -1950,7 +1950,7 @@
     </row>
     <row r="12" spans="1:35">
       <c r="A12" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B12" s="2">
         <v>1</v>
@@ -2057,7 +2057,7 @@
     </row>
     <row r="13" spans="1:35">
       <c r="A13" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B13" s="2">
         <v>1</v>
@@ -2164,7 +2164,7 @@
     </row>
     <row r="14" spans="1:35">
       <c r="A14" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B14" s="2">
         <v>1</v>
@@ -2271,7 +2271,7 @@
     </row>
     <row r="15" spans="1:35">
       <c r="A15" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B15" s="2">
         <v>1</v>
@@ -2378,7 +2378,7 @@
     </row>
     <row r="16" spans="1:35">
       <c r="A16" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B16" s="2">
         <v>1</v>
@@ -2485,7 +2485,7 @@
     </row>
     <row r="17" spans="1:35">
       <c r="A17" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B17" s="2">
         <v>1</v>
@@ -2592,7 +2592,7 @@
     </row>
     <row r="18" spans="1:35">
       <c r="A18" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B18" s="2">
         <v>1</v>
@@ -2699,7 +2699,7 @@
     </row>
     <row r="19" spans="1:35">
       <c r="A19" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B19" s="2">
         <v>1</v>
@@ -2806,7 +2806,7 @@
     </row>
     <row r="20" spans="1:35">
       <c r="A20" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B20" s="2">
         <v>1</v>
@@ -2913,7 +2913,7 @@
     </row>
     <row r="21" spans="1:35">
       <c r="A21" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B21" s="2">
         <v>1</v>
@@ -3020,7 +3020,7 @@
     </row>
     <row r="22" spans="1:35">
       <c r="A22" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B22" s="2">
         <v>1</v>
@@ -3127,7 +3127,7 @@
     </row>
     <row r="23" spans="1:35">
       <c r="A23" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B23" s="2">
         <v>1</v>
@@ -3234,7 +3234,7 @@
     </row>
     <row r="24" spans="1:35">
       <c r="A24" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B24" s="2">
         <v>1</v>
@@ -3341,7 +3341,7 @@
     </row>
     <row r="25" spans="1:35">
       <c r="A25" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B25" s="2">
         <v>1</v>
@@ -3448,7 +3448,7 @@
     </row>
     <row r="26" spans="1:35">
       <c r="A26" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B26" s="2">
         <v>1</v>
@@ -3555,7 +3555,7 @@
     </row>
     <row r="27" spans="1:35">
       <c r="A27" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B27" s="2">
         <v>1</v>
@@ -3662,7 +3662,7 @@
     </row>
     <row r="28" spans="1:35">
       <c r="A28" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B28" s="2">
         <v>1</v>
@@ -3769,7 +3769,7 @@
     </row>
     <row r="29" spans="1:35">
       <c r="A29" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B29" s="2">
         <v>1</v>
@@ -3876,7 +3876,7 @@
     </row>
     <row r="30" spans="1:35">
       <c r="A30" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B30" s="2">
         <v>1</v>
@@ -3983,7 +3983,7 @@
     </row>
     <row r="31" spans="1:35">
       <c r="A31" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B31" s="2">
         <v>1</v>
@@ -4090,7 +4090,7 @@
     </row>
     <row r="32" spans="1:35">
       <c r="A32" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B32" s="2">
         <v>1</v>
@@ -4197,7 +4197,7 @@
     </row>
     <row r="33" spans="1:35">
       <c r="A33" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B33" s="2">
         <v>1</v>
@@ -4304,7 +4304,7 @@
     </row>
     <row r="34" spans="1:35">
       <c r="A34" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B34" s="2">
         <v>1</v>
@@ -4411,7 +4411,7 @@
     </row>
     <row r="35" spans="1:35">
       <c r="A35" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B35" s="2">
         <v>1</v>
@@ -4518,7 +4518,7 @@
     </row>
     <row r="36" spans="1:35">
       <c r="A36" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B36" s="2">
         <v>1</v>
@@ -4625,7 +4625,7 @@
     </row>
     <row r="37" spans="1:35">
       <c r="A37" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B37" s="2">
         <v>1</v>
@@ -4732,7 +4732,7 @@
     </row>
     <row r="38" spans="1:35">
       <c r="A38" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B38" s="2">
         <v>1</v>
@@ -4839,7 +4839,7 @@
     </row>
     <row r="39" spans="1:35">
       <c r="A39" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B39" s="2">
         <v>1</v>
@@ -4946,7 +4946,7 @@
     </row>
     <row r="40" spans="1:35">
       <c r="A40" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B40" s="2">
         <v>1</v>
@@ -5053,7 +5053,7 @@
     </row>
     <row r="41" spans="1:35">
       <c r="A41" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B41" s="2">
         <v>1</v>
@@ -5160,7 +5160,7 @@
     </row>
     <row r="42" spans="1:35">
       <c r="A42" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B42" s="2">
         <v>1</v>
@@ -5267,7 +5267,7 @@
     </row>
     <row r="43" spans="1:35">
       <c r="A43" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B43" s="2">
         <v>1</v>

--- a/Chunk7-Usability/method_scoring.xlsx
+++ b/Chunk7-Usability/method_scoring.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/duohongrui/Desktop/simbenchmark/Chunk7-Usability/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F0FCC4C-A6DE-A94C-A401-AA318D4E5B48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48ED8587-FA5D-C04F-8AAF-2EB91A12CDC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{CA7C452C-7A53-8B4D-B1F8-0FF38FECB6A5}"/>
+    <workbookView xWindow="-30240" yWindow="1480" windowWidth="30240" windowHeight="18880" xr2:uid="{CA7C452C-7A53-8B4D-B1F8-0FF38FECB6A5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
   <si>
     <t>Open source</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -337,6 +337,18 @@
   <si>
     <t>Demonstrations</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>scDesign3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCRIP-paths</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SimBPDD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -724,11 +736,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F0F0ABD-1331-E548-9824-1B9EE713056C}">
-  <dimension ref="A1:AI43"/>
+  <dimension ref="A1:AI46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="U1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AB6" sqref="AB6"/>
+    <sheetView tabSelected="1" topLeftCell="Y1" zoomScale="125" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AI39" sqref="AI39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2592,7 +2604,7 @@
     </row>
     <row r="18" spans="1:35">
       <c r="A18" s="1" t="s">
-        <v>49</v>
+        <v>77</v>
       </c>
       <c r="B18" s="2">
         <v>1</v>
@@ -2607,7 +2619,7 @@
         <v>1</v>
       </c>
       <c r="F18" s="2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G18" s="2">
         <v>1</v>
@@ -2640,40 +2652,40 @@
         <v>1</v>
       </c>
       <c r="Q18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U18" s="2">
         <v>1</v>
       </c>
       <c r="V18" s="2">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="W18" s="2">
         <v>1</v>
       </c>
       <c r="X18" s="2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="Y18" s="2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="Z18" s="2">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AA18" s="2">
         <v>1</v>
       </c>
       <c r="AB18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC18" s="2">
         <v>1</v>
@@ -2682,7 +2694,7 @@
         <v>1</v>
       </c>
       <c r="AE18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF18" s="2">
         <v>1</v>
@@ -2691,7 +2703,7 @@
         <v>1</v>
       </c>
       <c r="AH18" s="2">
-        <v>440</v>
+        <v>1</v>
       </c>
       <c r="AI18" s="2">
         <v>1</v>
@@ -2699,7 +2711,7 @@
     </row>
     <row r="19" spans="1:35">
       <c r="A19" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B19" s="2">
         <v>1</v>
@@ -2711,10 +2723,10 @@
         <v>1</v>
       </c>
       <c r="E19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F19" s="2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G19" s="2">
         <v>1</v>
@@ -2729,10 +2741,10 @@
         <v>1</v>
       </c>
       <c r="K19" s="2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="L19" s="2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M19" s="2">
         <v>1</v>
@@ -2741,13 +2753,13 @@
         <v>1</v>
       </c>
       <c r="O19" s="2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="P19" s="2">
         <v>1</v>
       </c>
       <c r="Q19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R19" s="2">
         <v>0</v>
@@ -2759,7 +2771,7 @@
         <v>0</v>
       </c>
       <c r="U19" s="2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="V19" s="2">
         <v>0.6</v>
@@ -2768,19 +2780,19 @@
         <v>1</v>
       </c>
       <c r="X19" s="2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="Y19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z19" s="2">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AA19" s="2">
         <v>1</v>
       </c>
       <c r="AB19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC19" s="2">
         <v>1</v>
@@ -2789,30 +2801,30 @@
         <v>1</v>
       </c>
       <c r="AE19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH19" s="2">
-        <v>0</v>
+        <v>440</v>
       </c>
       <c r="AI19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:35">
       <c r="A20" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B20" s="2">
         <v>1</v>
       </c>
       <c r="C20" s="2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="D20" s="2">
         <v>1</v>
@@ -2824,7 +2836,7 @@
         <v>0.5</v>
       </c>
       <c r="G20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H20" s="2">
         <v>0.5</v>
@@ -2836,22 +2848,22 @@
         <v>1</v>
       </c>
       <c r="K20" s="2">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="L20" s="2">
         <v>0.5</v>
       </c>
       <c r="M20" s="2">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="N20" s="2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="O20" s="2">
         <v>0.5</v>
       </c>
       <c r="P20" s="2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="Q20" s="2">
         <v>0</v>
@@ -2872,10 +2884,10 @@
         <v>0.6</v>
       </c>
       <c r="W20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X20" s="2">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="Y20" s="2">
         <v>0</v>
@@ -2884,54 +2896,54 @@
         <v>0.8</v>
       </c>
       <c r="AA20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH20" s="2">
-        <v>143</v>
+        <v>0</v>
       </c>
       <c r="AI20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:35">
       <c r="A21" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B21" s="2">
         <v>1</v>
       </c>
       <c r="C21" s="2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="D21" s="2">
         <v>1</v>
       </c>
       <c r="E21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F21" s="2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H21" s="2">
         <v>0.5</v>
@@ -2943,25 +2955,25 @@
         <v>1</v>
       </c>
       <c r="K21" s="2">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="L21" s="2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M21" s="2">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="N21" s="2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="O21" s="2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="P21" s="2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="Q21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R21" s="2">
         <v>0</v>
@@ -2979,28 +2991,28 @@
         <v>0.6</v>
       </c>
       <c r="W21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="2">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AA21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB21" s="2">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AC21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="2">
         <v>0</v>
@@ -3012,7 +3024,7 @@
         <v>1</v>
       </c>
       <c r="AH21" s="2">
-        <v>260</v>
+        <v>143</v>
       </c>
       <c r="AI21" s="2">
         <v>1</v>
@@ -3020,7 +3032,7 @@
     </row>
     <row r="22" spans="1:35">
       <c r="A22" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B22" s="2">
         <v>1</v>
@@ -3050,16 +3062,16 @@
         <v>1</v>
       </c>
       <c r="K22" s="2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="L22" s="2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M22" s="2">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="N22" s="2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="O22" s="2">
         <v>1</v>
@@ -3068,22 +3080,22 @@
         <v>1</v>
       </c>
       <c r="Q22" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R22" s="2">
         <v>0</v>
       </c>
       <c r="S22" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T22" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U22" s="2">
         <v>0.5</v>
       </c>
       <c r="V22" s="2">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="W22" s="2">
         <v>1</v>
@@ -3092,16 +3104,16 @@
         <v>1</v>
       </c>
       <c r="Y22" s="2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="Z22" s="2">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AA22" s="2">
         <v>1</v>
       </c>
       <c r="AB22" s="2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AC22" s="2">
         <v>1</v>
@@ -3110,7 +3122,7 @@
         <v>1</v>
       </c>
       <c r="AE22" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF22" s="2">
         <v>1</v>
@@ -3119,7 +3131,7 @@
         <v>1</v>
       </c>
       <c r="AH22" s="2">
-        <v>18</v>
+        <v>260</v>
       </c>
       <c r="AI22" s="2">
         <v>1</v>
@@ -3127,7 +3139,7 @@
     </row>
     <row r="23" spans="1:35">
       <c r="A23" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B23" s="2">
         <v>1</v>
@@ -3142,10 +3154,10 @@
         <v>1</v>
       </c>
       <c r="F23" s="2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G23" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H23" s="2">
         <v>0.5</v>
@@ -3157,16 +3169,16 @@
         <v>1</v>
       </c>
       <c r="K23" s="2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="L23" s="2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M23" s="2">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="N23" s="2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="O23" s="2">
         <v>1</v>
@@ -3178,7 +3190,7 @@
         <v>0</v>
       </c>
       <c r="R23" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S23" s="2">
         <v>1</v>
@@ -3190,13 +3202,13 @@
         <v>0.5</v>
       </c>
       <c r="V23" s="2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="W23" s="2">
         <v>1</v>
       </c>
       <c r="X23" s="2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="Y23" s="2">
         <v>0.5</v>
@@ -3217,7 +3229,7 @@
         <v>1</v>
       </c>
       <c r="AE23" s="2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AF23" s="2">
         <v>1</v>
@@ -3226,7 +3238,7 @@
         <v>1</v>
       </c>
       <c r="AH23" s="2">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AI23" s="2">
         <v>1</v>
@@ -3234,7 +3246,7 @@
     </row>
     <row r="24" spans="1:35">
       <c r="A24" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B24" s="2">
         <v>1</v>
@@ -3249,10 +3261,10 @@
         <v>1</v>
       </c>
       <c r="F24" s="2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G24" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H24" s="2">
         <v>0.5</v>
@@ -3291,7 +3303,7 @@
         <v>1</v>
       </c>
       <c r="T24" s="2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="U24" s="2">
         <v>0.5</v>
@@ -3303,7 +3315,7 @@
         <v>1</v>
       </c>
       <c r="X24" s="2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="Y24" s="2">
         <v>0.5</v>
@@ -3324,7 +3336,7 @@
         <v>1</v>
       </c>
       <c r="AE24" s="2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AF24" s="2">
         <v>1</v>
@@ -3333,7 +3345,7 @@
         <v>1</v>
       </c>
       <c r="AH24" s="2">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="AI24" s="2">
         <v>1</v>
@@ -3341,7 +3353,7 @@
     </row>
     <row r="25" spans="1:35">
       <c r="A25" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B25" s="2">
         <v>1</v>
@@ -3356,7 +3368,7 @@
         <v>1</v>
       </c>
       <c r="F25" s="2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G25" s="2">
         <v>1</v>
@@ -3389,7 +3401,7 @@
         <v>1</v>
       </c>
       <c r="Q25" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R25" s="2">
         <v>1</v>
@@ -3404,13 +3416,13 @@
         <v>0.5</v>
       </c>
       <c r="V25" s="2">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="W25" s="2">
         <v>1</v>
       </c>
       <c r="X25" s="2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="Y25" s="2">
         <v>0.5</v>
@@ -3440,7 +3452,7 @@
         <v>1</v>
       </c>
       <c r="AH25" s="2">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="AI25" s="2">
         <v>1</v>
@@ -3448,7 +3460,7 @@
     </row>
     <row r="26" spans="1:35">
       <c r="A26" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B26" s="2">
         <v>1</v>
@@ -3463,7 +3475,7 @@
         <v>1</v>
       </c>
       <c r="F26" s="2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G26" s="2">
         <v>1</v>
@@ -3478,7 +3490,7 @@
         <v>1</v>
       </c>
       <c r="K26" s="2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="L26" s="2">
         <v>1</v>
@@ -3487,10 +3499,10 @@
         <v>1</v>
       </c>
       <c r="N26" s="2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="O26" s="2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="P26" s="2">
         <v>1</v>
@@ -3499,37 +3511,37 @@
         <v>1</v>
       </c>
       <c r="R26" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S26" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T26" s="2">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="U26" s="2">
         <v>0.5</v>
       </c>
       <c r="V26" s="2">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="W26" s="2">
         <v>1</v>
       </c>
       <c r="X26" s="2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="Y26" s="2">
         <v>0.5</v>
       </c>
       <c r="Z26" s="2">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AA26" s="2">
         <v>1</v>
       </c>
       <c r="AB26" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC26" s="2">
         <v>1</v>
@@ -3538,7 +3550,7 @@
         <v>1</v>
       </c>
       <c r="AE26" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF26" s="2">
         <v>1</v>
@@ -3547,7 +3559,7 @@
         <v>1</v>
       </c>
       <c r="AH26" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AI26" s="2">
         <v>1</v>
@@ -3555,7 +3567,7 @@
     </row>
     <row r="27" spans="1:35">
       <c r="A27" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B27" s="2">
         <v>1</v>
@@ -3585,7 +3597,7 @@
         <v>1</v>
       </c>
       <c r="K27" s="2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="L27" s="2">
         <v>1</v>
@@ -3594,16 +3606,16 @@
         <v>1</v>
       </c>
       <c r="N27" s="2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="O27" s="2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="P27" s="2">
         <v>1</v>
       </c>
       <c r="Q27" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R27" s="2">
         <v>0</v>
@@ -3618,7 +3630,7 @@
         <v>0.5</v>
       </c>
       <c r="V27" s="2">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="W27" s="2">
         <v>1</v>
@@ -3630,13 +3642,13 @@
         <v>0.5</v>
       </c>
       <c r="Z27" s="2">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AA27" s="2">
         <v>1</v>
       </c>
       <c r="AB27" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC27" s="2">
         <v>1</v>
@@ -3645,7 +3657,7 @@
         <v>1</v>
       </c>
       <c r="AE27" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF27" s="2">
         <v>1</v>
@@ -3654,7 +3666,7 @@
         <v>1</v>
       </c>
       <c r="AH27" s="2">
-        <v>87</v>
+        <v>9</v>
       </c>
       <c r="AI27" s="2">
         <v>1</v>
@@ -3662,7 +3674,7 @@
     </row>
     <row r="28" spans="1:35">
       <c r="A28" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B28" s="2">
         <v>1</v>
@@ -3677,7 +3689,7 @@
         <v>1</v>
       </c>
       <c r="F28" s="2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G28" s="2">
         <v>1</v>
@@ -3698,13 +3710,13 @@
         <v>1</v>
       </c>
       <c r="M28" s="2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="N28" s="2">
         <v>1</v>
       </c>
       <c r="O28" s="2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="P28" s="2">
         <v>1</v>
@@ -3725,13 +3737,13 @@
         <v>0.5</v>
       </c>
       <c r="V28" s="2">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="W28" s="2">
         <v>1</v>
       </c>
       <c r="X28" s="2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="Y28" s="2">
         <v>0.5</v>
@@ -3761,7 +3773,7 @@
         <v>1</v>
       </c>
       <c r="AH28" s="2">
-        <v>4</v>
+        <v>87</v>
       </c>
       <c r="AI28" s="2">
         <v>1</v>
@@ -3769,7 +3781,7 @@
     </row>
     <row r="29" spans="1:35">
       <c r="A29" s="1" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="B29" s="2">
         <v>1</v>
@@ -3805,16 +3817,16 @@
         <v>1</v>
       </c>
       <c r="M29" s="2">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="N29" s="2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="O29" s="2">
         <v>0.5</v>
       </c>
       <c r="P29" s="2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="Q29" s="2">
         <v>1</v>
@@ -3826,13 +3838,13 @@
         <v>0</v>
       </c>
       <c r="T29" s="2">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="U29" s="2">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="V29" s="2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="W29" s="2">
         <v>1</v>
@@ -3847,7 +3859,7 @@
         <v>0.8</v>
       </c>
       <c r="AA29" s="2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AB29" s="2">
         <v>1</v>
@@ -3859,13 +3871,13 @@
         <v>1</v>
       </c>
       <c r="AE29" s="2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AF29" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG29" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH29" s="2">
         <v>0</v>
@@ -3876,7 +3888,7 @@
     </row>
     <row r="30" spans="1:35">
       <c r="A30" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B30" s="2">
         <v>1</v>
@@ -3891,10 +3903,10 @@
         <v>1</v>
       </c>
       <c r="F30" s="2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G30" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H30" s="2">
         <v>0.5</v>
@@ -3906,19 +3918,19 @@
         <v>1</v>
       </c>
       <c r="K30" s="2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="L30" s="2">
         <v>1</v>
       </c>
       <c r="M30" s="2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="N30" s="2">
         <v>1</v>
       </c>
       <c r="O30" s="2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="P30" s="2">
         <v>1</v>
@@ -3939,13 +3951,13 @@
         <v>0.5</v>
       </c>
       <c r="V30" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W30" s="2">
         <v>1</v>
       </c>
       <c r="X30" s="2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="Y30" s="2">
         <v>0.5</v>
@@ -3975,21 +3987,21 @@
         <v>1</v>
       </c>
       <c r="AH30" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AI30" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:35">
-      <c r="A31" s="2" t="s">
-        <v>62</v>
+      <c r="A31" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="B31" s="2">
         <v>1</v>
       </c>
       <c r="C31" s="2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="D31" s="2">
         <v>1</v>
@@ -4004,10 +4016,10 @@
         <v>1</v>
       </c>
       <c r="H31" s="2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="I31" s="2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="J31" s="2">
         <v>1</v>
@@ -4022,7 +4034,7 @@
         <v>1</v>
       </c>
       <c r="N31" s="2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="O31" s="2">
         <v>0.5</v>
@@ -4037,25 +4049,25 @@
         <v>0</v>
       </c>
       <c r="S31" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T31" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U31" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V31" s="2">
         <v>1</v>
       </c>
       <c r="W31" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X31" s="2">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="Y31" s="2">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="Z31" s="2">
         <v>0.8</v>
@@ -4064,7 +4076,7 @@
         <v>1</v>
       </c>
       <c r="AB31" s="2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AC31" s="2">
         <v>1</v>
@@ -4076,21 +4088,21 @@
         <v>1</v>
       </c>
       <c r="AF31" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG31" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH31" s="2">
-        <v>86</v>
+        <v>0</v>
       </c>
       <c r="AI31" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:35">
-      <c r="A32" s="2" t="s">
-        <v>71</v>
+      <c r="A32" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="B32" s="2">
         <v>1</v>
@@ -4108,7 +4120,7 @@
         <v>1</v>
       </c>
       <c r="G32" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H32" s="2">
         <v>0.5</v>
@@ -4120,7 +4132,7 @@
         <v>1</v>
       </c>
       <c r="K32" s="2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="L32" s="2">
         <v>1</v>
@@ -4138,22 +4150,22 @@
         <v>1</v>
       </c>
       <c r="Q32" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R32" s="2">
         <v>0</v>
       </c>
       <c r="S32" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T32" s="2">
         <v>0</v>
       </c>
       <c r="U32" s="2">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="V32" s="2">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="W32" s="2">
         <v>1</v>
@@ -4189,7 +4201,7 @@
         <v>1</v>
       </c>
       <c r="AH32" s="2">
-        <v>488</v>
+        <v>3</v>
       </c>
       <c r="AI32" s="2">
         <v>1</v>
@@ -4197,13 +4209,13 @@
     </row>
     <row r="33" spans="1:35">
       <c r="A33" s="2" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="B33" s="2">
         <v>1</v>
       </c>
       <c r="C33" s="2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="D33" s="2">
         <v>1</v>
@@ -4212,16 +4224,16 @@
         <v>1</v>
       </c>
       <c r="F33" s="2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G33" s="2">
         <v>1</v>
       </c>
       <c r="H33" s="2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="I33" s="2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="J33" s="2">
         <v>1</v>
@@ -4236,10 +4248,10 @@
         <v>1</v>
       </c>
       <c r="N33" s="2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="O33" s="2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="P33" s="2">
         <v>1</v>
@@ -4251,25 +4263,25 @@
         <v>0</v>
       </c>
       <c r="S33" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T33" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U33" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V33" s="2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="W33" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X33" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y33" s="2">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="Z33" s="2">
         <v>0.8</v>
@@ -4278,7 +4290,7 @@
         <v>1</v>
       </c>
       <c r="AB33" s="2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AC33" s="2">
         <v>1</v>
@@ -4296,7 +4308,7 @@
         <v>1</v>
       </c>
       <c r="AH33" s="2">
-        <v>2</v>
+        <v>86</v>
       </c>
       <c r="AI33" s="2">
         <v>1</v>
@@ -4304,7 +4316,7 @@
     </row>
     <row r="34" spans="1:35">
       <c r="A34" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B34" s="2">
         <v>1</v>
@@ -4319,7 +4331,7 @@
         <v>1</v>
       </c>
       <c r="F34" s="2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G34" s="2">
         <v>1</v>
@@ -4358,7 +4370,7 @@
         <v>0</v>
       </c>
       <c r="S34" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T34" s="2">
         <v>0</v>
@@ -4367,13 +4379,13 @@
         <v>0</v>
       </c>
       <c r="V34" s="2">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="W34" s="2">
         <v>1</v>
       </c>
       <c r="X34" s="2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="Y34" s="2">
         <v>0.5</v>
@@ -4403,7 +4415,7 @@
         <v>1</v>
       </c>
       <c r="AH34" s="2">
-        <v>8</v>
+        <v>488</v>
       </c>
       <c r="AI34" s="2">
         <v>1</v>
@@ -4411,7 +4423,7 @@
     </row>
     <row r="35" spans="1:35">
       <c r="A35" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B35" s="2">
         <v>1</v>
@@ -4426,7 +4438,7 @@
         <v>1</v>
       </c>
       <c r="F35" s="2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G35" s="2">
         <v>1</v>
@@ -4474,13 +4486,13 @@
         <v>0</v>
       </c>
       <c r="V35" s="2">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="W35" s="2">
         <v>1</v>
       </c>
       <c r="X35" s="2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="Y35" s="2">
         <v>0.5</v>
@@ -4510,7 +4522,7 @@
         <v>1</v>
       </c>
       <c r="AH35" s="2">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="AI35" s="2">
         <v>1</v>
@@ -4518,7 +4530,7 @@
     </row>
     <row r="36" spans="1:35">
       <c r="A36" s="2" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="B36" s="2">
         <v>1</v>
@@ -4560,7 +4572,7 @@
         <v>1</v>
       </c>
       <c r="O36" s="2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="P36" s="2">
         <v>1</v>
@@ -4569,28 +4581,28 @@
         <v>1</v>
       </c>
       <c r="R36" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S36" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T36" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U36" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V36" s="2">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="W36" s="2">
         <v>1</v>
       </c>
       <c r="X36" s="2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="Y36" s="2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="Z36" s="2">
         <v>0.8</v>
@@ -4617,7 +4629,7 @@
         <v>1</v>
       </c>
       <c r="AH36" s="2">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="AI36" s="2">
         <v>1</v>
@@ -4625,7 +4637,7 @@
     </row>
     <row r="37" spans="1:35">
       <c r="A37" s="2" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="B37" s="2">
         <v>1</v>
@@ -4637,7 +4649,7 @@
         <v>1</v>
       </c>
       <c r="E37" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F37" s="2">
         <v>0.5</v>
@@ -4658,7 +4670,7 @@
         <v>1</v>
       </c>
       <c r="L37" s="2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M37" s="2">
         <v>1</v>
@@ -4667,34 +4679,34 @@
         <v>1</v>
       </c>
       <c r="O37" s="2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="P37" s="2">
         <v>1</v>
       </c>
       <c r="Q37" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R37" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S37" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T37" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U37" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V37" s="2">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="W37" s="2">
         <v>1</v>
       </c>
       <c r="X37" s="2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="Y37" s="2">
         <v>0.5</v>
@@ -4724,7 +4736,7 @@
         <v>1</v>
       </c>
       <c r="AH37" s="2">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AI37" s="2">
         <v>1</v>
@@ -4732,7 +4744,7 @@
     </row>
     <row r="38" spans="1:35">
       <c r="A38" s="2" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="B38" s="2">
         <v>1</v>
@@ -4747,7 +4759,7 @@
         <v>1</v>
       </c>
       <c r="F38" s="2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G38" s="2">
         <v>1</v>
@@ -4780,22 +4792,22 @@
         <v>1</v>
       </c>
       <c r="Q38" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R38" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S38" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T38" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U38" s="2">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="V38" s="2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="W38" s="2">
         <v>1</v>
@@ -4813,7 +4825,7 @@
         <v>1</v>
       </c>
       <c r="AB38" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC38" s="2">
         <v>1</v>
@@ -4822,24 +4834,24 @@
         <v>1</v>
       </c>
       <c r="AE38" s="2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AF38" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG38" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH38" s="2">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AI38" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:35">
       <c r="A39" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B39" s="2">
         <v>1</v>
@@ -4854,7 +4866,7 @@
         <v>1</v>
       </c>
       <c r="F39" s="2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G39" s="2">
         <v>1</v>
@@ -4881,13 +4893,13 @@
         <v>1</v>
       </c>
       <c r="O39" s="2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="P39" s="2">
         <v>1</v>
       </c>
       <c r="Q39" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R39" s="2">
         <v>1</v>
@@ -4896,13 +4908,13 @@
         <v>1</v>
       </c>
       <c r="T39" s="2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="U39" s="2">
         <v>1</v>
       </c>
       <c r="V39" s="2">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="W39" s="2">
         <v>1</v>
@@ -4938,7 +4950,7 @@
         <v>1</v>
       </c>
       <c r="AH39" s="2">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="AI39" s="2">
         <v>1</v>
@@ -4946,7 +4958,7 @@
     </row>
     <row r="40" spans="1:35">
       <c r="A40" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B40" s="2">
         <v>1</v>
@@ -4958,7 +4970,7 @@
         <v>1</v>
       </c>
       <c r="E40" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F40" s="2">
         <v>0.5</v>
@@ -4988,13 +5000,13 @@
         <v>1</v>
       </c>
       <c r="O40" s="2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="P40" s="2">
         <v>1</v>
       </c>
       <c r="Q40" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R40" s="2">
         <v>1</v>
@@ -5003,13 +5015,13 @@
         <v>1</v>
       </c>
       <c r="T40" s="2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="U40" s="2">
         <v>1</v>
       </c>
       <c r="V40" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W40" s="2">
         <v>1</v>
@@ -5045,7 +5057,7 @@
         <v>1</v>
       </c>
       <c r="AH40" s="2">
-        <v>376</v>
+        <v>1</v>
       </c>
       <c r="AI40" s="2">
         <v>1</v>
@@ -5053,7 +5065,7 @@
     </row>
     <row r="41" spans="1:35">
       <c r="A41" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B41" s="2">
         <v>1</v>
@@ -5086,7 +5098,7 @@
         <v>1</v>
       </c>
       <c r="L41" s="2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M41" s="2">
         <v>1</v>
@@ -5095,25 +5107,25 @@
         <v>1</v>
       </c>
       <c r="O41" s="2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="P41" s="2">
         <v>1</v>
       </c>
       <c r="Q41" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R41" s="2">
         <v>0</v>
       </c>
       <c r="S41" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T41" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U41" s="2">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="V41" s="2">
         <v>1</v>
@@ -5146,13 +5158,13 @@
         <v>1</v>
       </c>
       <c r="AF41" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG41" s="2">
         <v>0</v>
       </c>
       <c r="AH41" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AI41" s="2">
         <v>0</v>
@@ -5160,7 +5172,7 @@
     </row>
     <row r="42" spans="1:35">
       <c r="A42" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B42" s="2">
         <v>1</v>
@@ -5193,13 +5205,13 @@
         <v>1</v>
       </c>
       <c r="L42" s="2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M42" s="2">
         <v>1</v>
       </c>
       <c r="N42" s="2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="O42" s="2">
         <v>1</v>
@@ -5208,10 +5220,10 @@
         <v>1</v>
       </c>
       <c r="Q42" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R42" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S42" s="2">
         <v>1</v>
@@ -5220,10 +5232,10 @@
         <v>0.5</v>
       </c>
       <c r="U42" s="2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="V42" s="2">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="W42" s="2">
         <v>1</v>
@@ -5232,10 +5244,10 @@
         <v>1</v>
       </c>
       <c r="Y42" s="2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="Z42" s="2">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AA42" s="2">
         <v>1</v>
@@ -5259,7 +5271,7 @@
         <v>1</v>
       </c>
       <c r="AH42" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AI42" s="2">
         <v>1</v>
@@ -5267,108 +5279,429 @@
     </row>
     <row r="43" spans="1:35">
       <c r="A43" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B43" s="2">
+        <v>1</v>
+      </c>
+      <c r="C43" s="2">
+        <v>1</v>
+      </c>
+      <c r="D43" s="2">
+        <v>1</v>
+      </c>
+      <c r="E43" s="2">
+        <v>1</v>
+      </c>
+      <c r="F43" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="G43" s="2">
+        <v>1</v>
+      </c>
+      <c r="H43" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="I43" s="2">
+        <v>1</v>
+      </c>
+      <c r="J43" s="2">
+        <v>1</v>
+      </c>
+      <c r="K43" s="2">
+        <v>1</v>
+      </c>
+      <c r="L43" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="M43" s="2">
+        <v>1</v>
+      </c>
+      <c r="N43" s="2">
+        <v>1</v>
+      </c>
+      <c r="O43" s="2">
+        <v>1</v>
+      </c>
+      <c r="P43" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q43" s="2">
+        <v>1</v>
+      </c>
+      <c r="R43" s="2">
+        <v>1</v>
+      </c>
+      <c r="S43" s="2">
+        <v>1</v>
+      </c>
+      <c r="T43" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="U43" s="2">
+        <v>1</v>
+      </c>
+      <c r="V43" s="2">
+        <v>1</v>
+      </c>
+      <c r="W43" s="2">
+        <v>1</v>
+      </c>
+      <c r="X43" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y43" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="Z43" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="AA43" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB43" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC43" s="2">
+        <v>1</v>
+      </c>
+      <c r="AD43" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE43" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF43" s="2">
+        <v>1</v>
+      </c>
+      <c r="AG43" s="2">
+        <v>1</v>
+      </c>
+      <c r="AH43" s="2">
+        <v>376</v>
+      </c>
+      <c r="AI43" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:35">
+      <c r="A44" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B44" s="2">
+        <v>1</v>
+      </c>
+      <c r="C44" s="2">
+        <v>1</v>
+      </c>
+      <c r="D44" s="2">
+        <v>1</v>
+      </c>
+      <c r="E44" s="2">
+        <v>1</v>
+      </c>
+      <c r="F44" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="G44" s="2">
+        <v>1</v>
+      </c>
+      <c r="H44" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="I44" s="2">
+        <v>1</v>
+      </c>
+      <c r="J44" s="2">
+        <v>1</v>
+      </c>
+      <c r="K44" s="2">
+        <v>1</v>
+      </c>
+      <c r="L44" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="M44" s="2">
+        <v>1</v>
+      </c>
+      <c r="N44" s="2">
+        <v>1</v>
+      </c>
+      <c r="O44" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="P44" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q44" s="2">
+        <v>1</v>
+      </c>
+      <c r="R44" s="2">
+        <v>0</v>
+      </c>
+      <c r="S44" s="2">
+        <v>1</v>
+      </c>
+      <c r="T44" s="2">
+        <v>1</v>
+      </c>
+      <c r="U44" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="V44" s="2">
+        <v>1</v>
+      </c>
+      <c r="W44" s="2">
+        <v>1</v>
+      </c>
+      <c r="X44" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="Y44" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="Z44" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="AA44" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB44" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC44" s="2">
+        <v>1</v>
+      </c>
+      <c r="AD44" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE44" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF44" s="2">
+        <v>1</v>
+      </c>
+      <c r="AG44" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH44" s="2">
+        <v>3</v>
+      </c>
+      <c r="AI44" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:35">
+      <c r="A45" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B45" s="2">
+        <v>1</v>
+      </c>
+      <c r="C45" s="2">
+        <v>1</v>
+      </c>
+      <c r="D45" s="2">
+        <v>1</v>
+      </c>
+      <c r="E45" s="2">
+        <v>1</v>
+      </c>
+      <c r="F45" s="2">
+        <v>1</v>
+      </c>
+      <c r="G45" s="2">
+        <v>1</v>
+      </c>
+      <c r="H45" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="I45" s="2">
+        <v>1</v>
+      </c>
+      <c r="J45" s="2">
+        <v>1</v>
+      </c>
+      <c r="K45" s="2">
+        <v>1</v>
+      </c>
+      <c r="L45" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="M45" s="2">
+        <v>1</v>
+      </c>
+      <c r="N45" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="O45" s="2">
+        <v>1</v>
+      </c>
+      <c r="P45" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q45" s="2">
+        <v>1</v>
+      </c>
+      <c r="R45" s="2">
+        <v>0</v>
+      </c>
+      <c r="S45" s="2">
+        <v>1</v>
+      </c>
+      <c r="T45" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="U45" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="V45" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="W45" s="2">
+        <v>1</v>
+      </c>
+      <c r="X45" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y45" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="Z45" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA45" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB45" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC45" s="2">
+        <v>1</v>
+      </c>
+      <c r="AD45" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE45" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF45" s="2">
+        <v>1</v>
+      </c>
+      <c r="AG45" s="2">
+        <v>1</v>
+      </c>
+      <c r="AH45" s="2">
+        <v>24</v>
+      </c>
+      <c r="AI45" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:35">
+      <c r="A46" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B43" s="2">
-        <v>1</v>
-      </c>
-      <c r="C43" s="2">
-        <v>1</v>
-      </c>
-      <c r="D43" s="2">
-        <v>1</v>
-      </c>
-      <c r="E43" s="2">
-        <v>1</v>
-      </c>
-      <c r="F43" s="2">
-        <v>1</v>
-      </c>
-      <c r="G43" s="2">
-        <v>1</v>
-      </c>
-      <c r="H43" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="I43" s="2">
-        <v>1</v>
-      </c>
-      <c r="J43" s="2">
-        <v>1</v>
-      </c>
-      <c r="K43" s="2">
-        <v>1</v>
-      </c>
-      <c r="L43" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="M43" s="2">
-        <v>1</v>
-      </c>
-      <c r="N43" s="2">
-        <v>1</v>
-      </c>
-      <c r="O43" s="2">
-        <v>1</v>
-      </c>
-      <c r="P43" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q43" s="2">
-        <v>1</v>
-      </c>
-      <c r="R43" s="2">
-        <v>0</v>
-      </c>
-      <c r="S43" s="2">
-        <v>1</v>
-      </c>
-      <c r="T43" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="U43" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="V43" s="2">
+      <c r="B46" s="2">
+        <v>1</v>
+      </c>
+      <c r="C46" s="2">
+        <v>1</v>
+      </c>
+      <c r="D46" s="2">
+        <v>1</v>
+      </c>
+      <c r="E46" s="2">
+        <v>1</v>
+      </c>
+      <c r="F46" s="2">
+        <v>1</v>
+      </c>
+      <c r="G46" s="2">
+        <v>1</v>
+      </c>
+      <c r="H46" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="I46" s="2">
+        <v>1</v>
+      </c>
+      <c r="J46" s="2">
+        <v>1</v>
+      </c>
+      <c r="K46" s="2">
+        <v>1</v>
+      </c>
+      <c r="L46" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="M46" s="2">
+        <v>1</v>
+      </c>
+      <c r="N46" s="2">
+        <v>1</v>
+      </c>
+      <c r="O46" s="2">
+        <v>1</v>
+      </c>
+      <c r="P46" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q46" s="2">
+        <v>1</v>
+      </c>
+      <c r="R46" s="2">
+        <v>0</v>
+      </c>
+      <c r="S46" s="2">
+        <v>1</v>
+      </c>
+      <c r="T46" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="U46" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="V46" s="2">
         <v>0.3</v>
       </c>
-      <c r="W43" s="2">
-        <v>1</v>
-      </c>
-      <c r="X43" s="2">
-        <v>1</v>
-      </c>
-      <c r="Y43" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="Z43" s="2">
-        <v>1</v>
-      </c>
-      <c r="AA43" s="2">
-        <v>1</v>
-      </c>
-      <c r="AB43" s="2">
-        <v>1</v>
-      </c>
-      <c r="AC43" s="2">
-        <v>1</v>
-      </c>
-      <c r="AD43" s="2">
-        <v>1</v>
-      </c>
-      <c r="AE43" s="2">
-        <v>1</v>
-      </c>
-      <c r="AF43" s="2">
-        <v>1</v>
-      </c>
-      <c r="AG43" s="2">
-        <v>1</v>
-      </c>
-      <c r="AH43" s="2">
+      <c r="W46" s="2">
+        <v>1</v>
+      </c>
+      <c r="X46" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y46" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="Z46" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA46" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB46" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC46" s="2">
+        <v>1</v>
+      </c>
+      <c r="AD46" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE46" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF46" s="2">
+        <v>1</v>
+      </c>
+      <c r="AG46" s="2">
+        <v>1</v>
+      </c>
+      <c r="AH46" s="2">
         <v>24</v>
       </c>
-      <c r="AI43" s="2">
+      <c r="AI46" s="2">
         <v>1</v>
       </c>
     </row>

--- a/Chunk7-Usability/method_scoring.xlsx
+++ b/Chunk7-Usability/method_scoring.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/duohongrui/Desktop/simbenchmark/Chunk7-Usability/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48ED8587-FA5D-C04F-8AAF-2EB91A12CDC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C2CC333-C406-B443-B16B-747A0D1BFBEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-30240" yWindow="1480" windowWidth="30240" windowHeight="18880" xr2:uid="{CA7C452C-7A53-8B4D-B1F8-0FF38FECB6A5}"/>
   </bookViews>
@@ -191,22 +191,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>SCRIP1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>SCRIP2</t>
-  </si>
-  <si>
-    <t>SCRIP3</t>
-  </si>
-  <si>
-    <t>SCRIP4</t>
-  </si>
-  <si>
-    <t>SCRIP5</t>
-  </si>
-  <si>
     <t>powsimR</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -315,14 +299,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Splat-path</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SplatPop-path</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ESCO-tree</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -348,6 +324,34 @@
   </si>
   <si>
     <t>SimBPDD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCRIP-GP-trendedBCV</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCRIP-GP-commonBCV</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCRIP-BGP-commonBCV</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCRIP-BP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCRIP-BGP-trendedBCV</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Splat-paths</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SplatPop-paths</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -738,14 +742,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F0F0ABD-1331-E548-9824-1B9EE713056C}">
   <dimension ref="A1:AI46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Y1" zoomScale="125" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AI39" sqref="AI39"/>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="15.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.1640625" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.1640625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.33203125" style="2" bestFit="1" customWidth="1"/>
@@ -866,7 +870,7 @@
         <v>25</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="AC1" s="1" t="s">
         <v>26</v>
@@ -887,7 +891,7 @@
         <v>31</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:35">
@@ -1533,8 +1537,8 @@
       </c>
     </row>
     <row r="8" spans="1:35">
-      <c r="A8" s="1" t="s">
-        <v>39</v>
+      <c r="A8" s="2" t="s">
+        <v>73</v>
       </c>
       <c r="B8" s="2">
         <v>1</v>
@@ -1640,8 +1644,8 @@
       </c>
     </row>
     <row r="9" spans="1:35">
-      <c r="A9" s="1" t="s">
-        <v>40</v>
+      <c r="A9" s="2" t="s">
+        <v>74</v>
       </c>
       <c r="B9" s="2">
         <v>1</v>
@@ -1747,8 +1751,8 @@
       </c>
     </row>
     <row r="10" spans="1:35">
-      <c r="A10" s="1" t="s">
-        <v>41</v>
+      <c r="A10" s="2" t="s">
+        <v>75</v>
       </c>
       <c r="B10" s="2">
         <v>1</v>
@@ -1854,8 +1858,8 @@
       </c>
     </row>
     <row r="11" spans="1:35">
-      <c r="A11" s="1" t="s">
-        <v>42</v>
+      <c r="A11" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="B11" s="2">
         <v>1</v>
@@ -1961,8 +1965,8 @@
       </c>
     </row>
     <row r="12" spans="1:35">
-      <c r="A12" s="1" t="s">
-        <v>43</v>
+      <c r="A12" s="2" t="s">
+        <v>77</v>
       </c>
       <c r="B12" s="2">
         <v>1</v>
@@ -2069,7 +2073,7 @@
     </row>
     <row r="13" spans="1:35">
       <c r="A13" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B13" s="2">
         <v>1</v>
@@ -2176,7 +2180,7 @@
     </row>
     <row r="14" spans="1:35">
       <c r="A14" s="1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B14" s="2">
         <v>1</v>
@@ -2283,7 +2287,7 @@
     </row>
     <row r="15" spans="1:35">
       <c r="A15" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B15" s="2">
         <v>1</v>
@@ -2390,7 +2394,7 @@
     </row>
     <row r="16" spans="1:35">
       <c r="A16" s="1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B16" s="2">
         <v>1</v>
@@ -2497,7 +2501,7 @@
     </row>
     <row r="17" spans="1:35">
       <c r="A17" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B17" s="2">
         <v>1</v>
@@ -2604,7 +2608,7 @@
     </row>
     <row r="18" spans="1:35">
       <c r="A18" s="1" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="B18" s="2">
         <v>1</v>
@@ -2711,7 +2715,7 @@
     </row>
     <row r="19" spans="1:35">
       <c r="A19" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B19" s="2">
         <v>1</v>
@@ -2818,7 +2822,7 @@
     </row>
     <row r="20" spans="1:35">
       <c r="A20" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B20" s="2">
         <v>1</v>
@@ -2925,7 +2929,7 @@
     </row>
     <row r="21" spans="1:35">
       <c r="A21" s="1" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B21" s="2">
         <v>1</v>
@@ -3032,7 +3036,7 @@
     </row>
     <row r="22" spans="1:35">
       <c r="A22" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B22" s="2">
         <v>1</v>
@@ -3139,7 +3143,7 @@
     </row>
     <row r="23" spans="1:35">
       <c r="A23" s="1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B23" s="2">
         <v>1</v>
@@ -3246,7 +3250,7 @@
     </row>
     <row r="24" spans="1:35">
       <c r="A24" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B24" s="2">
         <v>1</v>
@@ -3353,7 +3357,7 @@
     </row>
     <row r="25" spans="1:35">
       <c r="A25" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B25" s="2">
         <v>1</v>
@@ -3460,7 +3464,7 @@
     </row>
     <row r="26" spans="1:35">
       <c r="A26" s="1" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B26" s="2">
         <v>1</v>
@@ -3567,7 +3571,7 @@
     </row>
     <row r="27" spans="1:35">
       <c r="A27" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B27" s="2">
         <v>1</v>
@@ -3674,7 +3678,7 @@
     </row>
     <row r="28" spans="1:35">
       <c r="A28" s="1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B28" s="2">
         <v>1</v>
@@ -3781,7 +3785,7 @@
     </row>
     <row r="29" spans="1:35">
       <c r="A29" s="1" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="B29" s="2">
         <v>1</v>
@@ -3888,7 +3892,7 @@
     </row>
     <row r="30" spans="1:35">
       <c r="A30" s="1" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B30" s="2">
         <v>1</v>
@@ -3995,7 +3999,7 @@
     </row>
     <row r="31" spans="1:35">
       <c r="A31" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B31" s="2">
         <v>1</v>
@@ -4102,7 +4106,7 @@
     </row>
     <row r="32" spans="1:35">
       <c r="A32" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B32" s="2">
         <v>1</v>
@@ -4209,7 +4213,7 @@
     </row>
     <row r="33" spans="1:35">
       <c r="A33" s="2" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B33" s="2">
         <v>1</v>
@@ -4316,7 +4320,7 @@
     </row>
     <row r="34" spans="1:35">
       <c r="A34" s="2" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="B34" s="2">
         <v>1</v>
@@ -4423,7 +4427,7 @@
     </row>
     <row r="35" spans="1:35">
       <c r="A35" s="2" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="B35" s="2">
         <v>1</v>
@@ -4530,7 +4534,7 @@
     </row>
     <row r="36" spans="1:35">
       <c r="A36" s="2" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="B36" s="2">
         <v>1</v>
@@ -4637,7 +4641,7 @@
     </row>
     <row r="37" spans="1:35">
       <c r="A37" s="2" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="B37" s="2">
         <v>1</v>
@@ -4744,7 +4748,7 @@
     </row>
     <row r="38" spans="1:35">
       <c r="A38" s="2" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="B38" s="2">
         <v>1</v>
@@ -4851,7 +4855,7 @@
     </row>
     <row r="39" spans="1:35">
       <c r="A39" s="2" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B39" s="2">
         <v>1</v>
@@ -4958,7 +4962,7 @@
     </row>
     <row r="40" spans="1:35">
       <c r="A40" s="2" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B40" s="2">
         <v>1</v>
@@ -5065,7 +5069,7 @@
     </row>
     <row r="41" spans="1:35">
       <c r="A41" s="2" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B41" s="2">
         <v>1</v>
@@ -5172,7 +5176,7 @@
     </row>
     <row r="42" spans="1:35">
       <c r="A42" s="2" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B42" s="2">
         <v>1</v>
@@ -5279,7 +5283,7 @@
     </row>
     <row r="43" spans="1:35">
       <c r="A43" s="2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B43" s="2">
         <v>1</v>
@@ -5386,7 +5390,7 @@
     </row>
     <row r="44" spans="1:35">
       <c r="A44" s="2" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B44" s="2">
         <v>1</v>
@@ -5493,7 +5497,7 @@
     </row>
     <row r="45" spans="1:35">
       <c r="A45" s="2" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B45" s="2">
         <v>1</v>
@@ -5600,7 +5604,7 @@
     </row>
     <row r="46" spans="1:35">
       <c r="A46" s="2" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B46" s="2">
         <v>1</v>

--- a/Chunk7-Usability/method_scoring.xlsx
+++ b/Chunk7-Usability/method_scoring.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/duohongrui/Desktop/simbenchmark/Chunk7-Usability/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C2CC333-C406-B443-B16B-747A0D1BFBEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF8D2B87-3403-D942-901D-E25A537D13C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-30240" yWindow="1480" windowWidth="30240" windowHeight="18880" xr2:uid="{CA7C452C-7A53-8B4D-B1F8-0FF38FECB6A5}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{CA7C452C-7A53-8B4D-B1F8-0FF38FECB6A5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="84">
   <si>
     <t>Open source</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -352,6 +352,22 @@
   </si>
   <si>
     <t>SplatPop-paths</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>scMultiSim-tree</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>scDesign3-tree</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>scMultiSim</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SRTsim</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -740,11 +756,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F0F0ABD-1331-E548-9824-1B9EE713056C}">
-  <dimension ref="A1:AI46"/>
+  <dimension ref="A1:AI50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A35" sqref="A35"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1003,7 +1019,7 @@
     </row>
     <row r="3" spans="1:35">
       <c r="A3" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B3" s="2">
         <v>1</v>
@@ -1054,7 +1070,7 @@
         <v>1</v>
       </c>
       <c r="R3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S3" s="2">
         <v>1</v>
@@ -1078,7 +1094,7 @@
         <v>1</v>
       </c>
       <c r="Z3" s="2">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AA3" s="2">
         <v>1</v>
@@ -1102,15 +1118,15 @@
         <v>1</v>
       </c>
       <c r="AH3" s="2">
-        <v>488</v>
+        <v>2</v>
       </c>
       <c r="AI3" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:35">
-      <c r="A4" s="1" t="s">
-        <v>35</v>
+      <c r="A4" s="2" t="s">
+        <v>73</v>
       </c>
       <c r="B4" s="2">
         <v>1</v>
@@ -1143,7 +1159,7 @@
         <v>1</v>
       </c>
       <c r="L4" s="2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M4" s="2">
         <v>1</v>
@@ -1167,22 +1183,22 @@
         <v>1</v>
       </c>
       <c r="T4" s="2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="U4" s="2">
         <v>0.5</v>
       </c>
       <c r="V4" s="2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="W4" s="2">
         <v>1</v>
       </c>
       <c r="X4" s="2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="Y4" s="2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="Z4" s="2">
         <v>0.8</v>
@@ -1200,7 +1216,7 @@
         <v>1</v>
       </c>
       <c r="AE4" s="2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AF4" s="2">
         <v>1</v>
@@ -1209,15 +1225,15 @@
         <v>1</v>
       </c>
       <c r="AH4" s="2">
-        <v>488</v>
+        <v>3</v>
       </c>
       <c r="AI4" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:35">
-      <c r="A5" s="1" t="s">
-        <v>36</v>
+      <c r="A5" s="2" t="s">
+        <v>74</v>
       </c>
       <c r="B5" s="2">
         <v>1</v>
@@ -1250,7 +1266,7 @@
         <v>1</v>
       </c>
       <c r="L5" s="2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M5" s="2">
         <v>1</v>
@@ -1268,28 +1284,28 @@
         <v>1</v>
       </c>
       <c r="R5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S5" s="2">
         <v>1</v>
       </c>
       <c r="T5" s="2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="U5" s="2">
         <v>0.5</v>
       </c>
       <c r="V5" s="2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="W5" s="2">
         <v>1</v>
       </c>
       <c r="X5" s="2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="Y5" s="2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="Z5" s="2">
         <v>0.8</v>
@@ -1307,7 +1323,7 @@
         <v>1</v>
       </c>
       <c r="AE5" s="2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AF5" s="2">
         <v>1</v>
@@ -1316,15 +1332,15 @@
         <v>1</v>
       </c>
       <c r="AH5" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AI5" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:35">
-      <c r="A6" s="1" t="s">
-        <v>37</v>
+      <c r="A6" s="2" t="s">
+        <v>75</v>
       </c>
       <c r="B6" s="2">
         <v>1</v>
@@ -1357,7 +1373,7 @@
         <v>1</v>
       </c>
       <c r="L6" s="2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M6" s="2">
         <v>1</v>
@@ -1381,25 +1397,25 @@
         <v>1</v>
       </c>
       <c r="T6" s="2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="U6" s="2">
         <v>0.5</v>
       </c>
       <c r="V6" s="2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="W6" s="2">
         <v>1</v>
       </c>
       <c r="X6" s="2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="Y6" s="2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="Z6" s="2">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AA6" s="2">
         <v>1</v>
@@ -1414,7 +1430,7 @@
         <v>1</v>
       </c>
       <c r="AE6" s="2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AF6" s="2">
         <v>1</v>
@@ -1423,15 +1439,15 @@
         <v>1</v>
       </c>
       <c r="AH6" s="2">
-        <v>780</v>
+        <v>3</v>
       </c>
       <c r="AI6" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:35">
-      <c r="A7" s="1" t="s">
-        <v>38</v>
+      <c r="A7" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="B7" s="2">
         <v>1</v>
@@ -1464,7 +1480,7 @@
         <v>1</v>
       </c>
       <c r="L7" s="2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M7" s="2">
         <v>1</v>
@@ -1488,25 +1504,25 @@
         <v>1</v>
       </c>
       <c r="T7" s="2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="U7" s="2">
         <v>0.5</v>
       </c>
       <c r="V7" s="2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="W7" s="2">
         <v>1</v>
       </c>
       <c r="X7" s="2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="Y7" s="2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="Z7" s="2">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AA7" s="2">
         <v>1</v>
@@ -1521,7 +1537,7 @@
         <v>1</v>
       </c>
       <c r="AE7" s="2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AF7" s="2">
         <v>1</v>
@@ -1530,7 +1546,7 @@
         <v>1</v>
       </c>
       <c r="AH7" s="2">
-        <v>93</v>
+        <v>3</v>
       </c>
       <c r="AI7" s="2">
         <v>1</v>
@@ -1538,7 +1554,7 @@
     </row>
     <row r="8" spans="1:35">
       <c r="A8" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B8" s="2">
         <v>1</v>
@@ -1644,8 +1660,8 @@
       </c>
     </row>
     <row r="9" spans="1:35">
-      <c r="A9" s="2" t="s">
-        <v>74</v>
+      <c r="A9" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="B9" s="2">
         <v>1</v>
@@ -1660,7 +1676,7 @@
         <v>1</v>
       </c>
       <c r="F9" s="2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G9" s="2">
         <v>1</v>
@@ -1678,7 +1694,7 @@
         <v>1</v>
       </c>
       <c r="L9" s="2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M9" s="2">
         <v>1</v>
@@ -1687,7 +1703,7 @@
         <v>1</v>
       </c>
       <c r="O9" s="2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="P9" s="2">
         <v>1</v>
@@ -1696,28 +1712,28 @@
         <v>1</v>
       </c>
       <c r="R9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T9" s="2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="U9" s="2">
         <v>0.5</v>
       </c>
       <c r="V9" s="2">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="W9" s="2">
         <v>1</v>
       </c>
       <c r="X9" s="2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="Y9" s="2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="Z9" s="2">
         <v>0.8</v>
@@ -1735,7 +1751,7 @@
         <v>1</v>
       </c>
       <c r="AE9" s="2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AF9" s="2">
         <v>1</v>
@@ -1744,15 +1760,15 @@
         <v>1</v>
       </c>
       <c r="AH9" s="2">
-        <v>3</v>
+        <v>113</v>
       </c>
       <c r="AI9" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:35">
-      <c r="A10" s="2" t="s">
-        <v>75</v>
+      <c r="A10" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="B10" s="2">
         <v>1</v>
@@ -1767,10 +1783,10 @@
         <v>1</v>
       </c>
       <c r="F10" s="2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H10" s="2">
         <v>0.5</v>
@@ -1785,7 +1801,7 @@
         <v>1</v>
       </c>
       <c r="L10" s="2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M10" s="2">
         <v>1</v>
@@ -1800,7 +1816,7 @@
         <v>1</v>
       </c>
       <c r="Q10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R10" s="2">
         <v>1</v>
@@ -1815,7 +1831,7 @@
         <v>0.5</v>
       </c>
       <c r="V10" s="2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="W10" s="2">
         <v>1</v>
@@ -1851,15 +1867,15 @@
         <v>1</v>
       </c>
       <c r="AH10" s="2">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="AI10" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:35">
-      <c r="A11" s="2" t="s">
-        <v>76</v>
+      <c r="A11" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="B11" s="2">
         <v>1</v>
@@ -1892,7 +1908,7 @@
         <v>1</v>
       </c>
       <c r="L11" s="2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M11" s="2">
         <v>1</v>
@@ -1907,7 +1923,7 @@
         <v>1</v>
       </c>
       <c r="Q11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R11" s="2">
         <v>1</v>
@@ -1916,19 +1932,19 @@
         <v>1</v>
       </c>
       <c r="T11" s="2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="U11" s="2">
         <v>0.5</v>
       </c>
       <c r="V11" s="2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="W11" s="2">
         <v>1</v>
       </c>
       <c r="X11" s="2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="Y11" s="2">
         <v>0.5</v>
@@ -1949,7 +1965,7 @@
         <v>1</v>
       </c>
       <c r="AE11" s="2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AF11" s="2">
         <v>1</v>
@@ -1958,7 +1974,7 @@
         <v>1</v>
       </c>
       <c r="AH11" s="2">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="AI11" s="2">
         <v>1</v>
@@ -1966,7 +1982,7 @@
     </row>
     <row r="12" spans="1:35">
       <c r="A12" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B12" s="2">
         <v>1</v>
@@ -1999,7 +2015,7 @@
         <v>1</v>
       </c>
       <c r="L12" s="2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M12" s="2">
         <v>1</v>
@@ -2017,16 +2033,16 @@
         <v>1</v>
       </c>
       <c r="R12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S12" s="2">
         <v>1</v>
       </c>
       <c r="T12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U12" s="2">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="V12" s="2">
         <v>0.5</v>
@@ -2035,7 +2051,7 @@
         <v>1</v>
       </c>
       <c r="X12" s="2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="Y12" s="2">
         <v>0.5</v>
@@ -2056,7 +2072,7 @@
         <v>1</v>
       </c>
       <c r="AE12" s="2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AF12" s="2">
         <v>1</v>
@@ -2065,15 +2081,15 @@
         <v>1</v>
       </c>
       <c r="AH12" s="2">
-        <v>3</v>
+        <v>488</v>
       </c>
       <c r="AI12" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:35">
-      <c r="A13" s="1" t="s">
-        <v>39</v>
+      <c r="A13" s="2" t="s">
+        <v>79</v>
       </c>
       <c r="B13" s="2">
         <v>1</v>
@@ -2088,7 +2104,7 @@
         <v>1</v>
       </c>
       <c r="F13" s="2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G13" s="2">
         <v>1</v>
@@ -2115,7 +2131,7 @@
         <v>1</v>
       </c>
       <c r="O13" s="2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="P13" s="2">
         <v>1</v>
@@ -2130,13 +2146,13 @@
         <v>0</v>
       </c>
       <c r="T13" s="2">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="U13" s="2">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="V13" s="2">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="W13" s="2">
         <v>1</v>
@@ -2145,7 +2161,7 @@
         <v>1</v>
       </c>
       <c r="Y13" s="2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="Z13" s="2">
         <v>0.8</v>
@@ -2172,15 +2188,15 @@
         <v>1</v>
       </c>
       <c r="AH13" s="2">
-        <v>113</v>
+        <v>2</v>
       </c>
       <c r="AI13" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:35">
-      <c r="A14" s="1" t="s">
-        <v>40</v>
+      <c r="A14" s="2" t="s">
+        <v>66</v>
       </c>
       <c r="B14" s="2">
         <v>1</v>
@@ -2195,7 +2211,7 @@
         <v>1</v>
       </c>
       <c r="F14" s="2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G14" s="2">
         <v>1</v>
@@ -2219,37 +2235,37 @@
         <v>1</v>
       </c>
       <c r="N14" s="2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="O14" s="2">
         <v>1</v>
       </c>
       <c r="P14" s="2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="Q14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U14" s="2">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="V14" s="2">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="W14" s="2">
         <v>1</v>
       </c>
       <c r="X14" s="2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="Y14" s="2">
         <v>0.5</v>
@@ -2279,15 +2295,15 @@
         <v>1</v>
       </c>
       <c r="AH14" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AI14" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:35">
-      <c r="A15" s="1" t="s">
-        <v>41</v>
+      <c r="A15" s="2" t="s">
+        <v>67</v>
       </c>
       <c r="B15" s="2">
         <v>1</v>
@@ -2302,7 +2318,7 @@
         <v>1</v>
       </c>
       <c r="F15" s="2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G15" s="2">
         <v>1</v>
@@ -2329,7 +2345,7 @@
         <v>1</v>
       </c>
       <c r="O15" s="2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="P15" s="2">
         <v>1</v>
@@ -2341,22 +2357,22 @@
         <v>0</v>
       </c>
       <c r="S15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T15" s="2">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="U15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V15" s="2">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="W15" s="2">
         <v>1</v>
       </c>
       <c r="X15" s="2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="Y15" s="2">
         <v>0.5</v>
@@ -2386,15 +2402,15 @@
         <v>1</v>
       </c>
       <c r="AH15" s="2">
-        <v>228</v>
+        <v>8</v>
       </c>
       <c r="AI15" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:35">
-      <c r="A16" s="1" t="s">
-        <v>42</v>
+      <c r="A16" s="2" t="s">
+        <v>71</v>
       </c>
       <c r="B16" s="2">
         <v>1</v>
@@ -2409,7 +2425,7 @@
         <v>1</v>
       </c>
       <c r="F16" s="2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G16" s="2">
         <v>1</v>
@@ -2427,7 +2443,7 @@
         <v>1</v>
       </c>
       <c r="L16" s="2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M16" s="2">
         <v>1</v>
@@ -2436,13 +2452,13 @@
         <v>1</v>
       </c>
       <c r="O16" s="2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="P16" s="2">
         <v>1</v>
       </c>
       <c r="Q16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R16" s="2">
         <v>1</v>
@@ -2454,16 +2470,16 @@
         <v>1</v>
       </c>
       <c r="U16" s="2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="V16" s="2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="W16" s="2">
         <v>1</v>
       </c>
       <c r="X16" s="2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="Y16" s="2">
         <v>0.5</v>
@@ -2475,7 +2491,7 @@
         <v>1</v>
       </c>
       <c r="AB16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC16" s="2">
         <v>1</v>
@@ -2484,7 +2500,7 @@
         <v>1</v>
       </c>
       <c r="AE16" s="2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AF16" s="2">
         <v>1</v>
@@ -2493,15 +2509,15 @@
         <v>1</v>
       </c>
       <c r="AH16" s="2">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="AI16" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:35">
-      <c r="A17" s="1" t="s">
-        <v>43</v>
+      <c r="A17" s="2" t="s">
+        <v>58</v>
       </c>
       <c r="B17" s="2">
         <v>1</v>
@@ -2531,25 +2547,25 @@
         <v>1</v>
       </c>
       <c r="K17" s="2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="L17" s="2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M17" s="2">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="N17" s="2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="O17" s="2">
         <v>0.5</v>
       </c>
       <c r="P17" s="2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="Q17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R17" s="2">
         <v>1</v>
@@ -2561,7 +2577,7 @@
         <v>1</v>
       </c>
       <c r="U17" s="2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="V17" s="2">
         <v>1</v>
@@ -2573,7 +2589,7 @@
         <v>1</v>
       </c>
       <c r="Y17" s="2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="Z17" s="2">
         <v>0.8</v>
@@ -2600,15 +2616,15 @@
         <v>1</v>
       </c>
       <c r="AH17" s="2">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="AI17" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:35">
-      <c r="A18" s="1" t="s">
-        <v>70</v>
+      <c r="A18" s="2" t="s">
+        <v>80</v>
       </c>
       <c r="B18" s="2">
         <v>1</v>
@@ -2644,7 +2660,7 @@
         <v>1</v>
       </c>
       <c r="M18" s="2">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="N18" s="2">
         <v>1</v>
@@ -2656,7 +2672,7 @@
         <v>1</v>
       </c>
       <c r="Q18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R18" s="2">
         <v>1</v>
@@ -2665,10 +2681,10 @@
         <v>1</v>
       </c>
       <c r="T18" s="2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="U18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V18" s="2">
         <v>1</v>
@@ -2704,18 +2720,18 @@
         <v>1</v>
       </c>
       <c r="AG18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH18" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AI18" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:35">
-      <c r="A19" s="1" t="s">
-        <v>44</v>
+      <c r="A19" s="2" t="s">
+        <v>81</v>
       </c>
       <c r="B19" s="2">
         <v>1</v>
@@ -2730,7 +2746,7 @@
         <v>1</v>
       </c>
       <c r="F19" s="2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G19" s="2">
         <v>1</v>
@@ -2763,40 +2779,40 @@
         <v>1</v>
       </c>
       <c r="Q19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U19" s="2">
         <v>1</v>
       </c>
       <c r="V19" s="2">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="W19" s="2">
         <v>1</v>
       </c>
       <c r="X19" s="2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="Y19" s="2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="Z19" s="2">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AA19" s="2">
         <v>1</v>
       </c>
       <c r="AB19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC19" s="2">
         <v>1</v>
@@ -2805,7 +2821,7 @@
         <v>1</v>
       </c>
       <c r="AE19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF19" s="2">
         <v>1</v>
@@ -2814,15 +2830,15 @@
         <v>1</v>
       </c>
       <c r="AH19" s="2">
-        <v>440</v>
+        <v>1</v>
       </c>
       <c r="AI19" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:35">
-      <c r="A20" s="1" t="s">
-        <v>45</v>
+      <c r="A20" s="2" t="s">
+        <v>59</v>
       </c>
       <c r="B20" s="2">
         <v>1</v>
@@ -2852,7 +2868,7 @@
         <v>1</v>
       </c>
       <c r="K20" s="2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="L20" s="2">
         <v>0.5</v>
@@ -2873,28 +2889,28 @@
         <v>0</v>
       </c>
       <c r="R20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U20" s="2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="V20" s="2">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="W20" s="2">
         <v>1</v>
       </c>
       <c r="X20" s="2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="Y20" s="2">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="Z20" s="2">
         <v>0.8</v>
@@ -2915,39 +2931,39 @@
         <v>1</v>
       </c>
       <c r="AF20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:35">
-      <c r="A21" s="1" t="s">
-        <v>46</v>
+      <c r="A21" s="2" t="s">
+        <v>60</v>
       </c>
       <c r="B21" s="2">
         <v>1</v>
       </c>
       <c r="C21" s="2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="D21" s="2">
         <v>1</v>
       </c>
       <c r="E21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F21" s="2">
         <v>0.5</v>
       </c>
       <c r="G21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H21" s="2">
         <v>0.5</v>
@@ -2959,22 +2975,22 @@
         <v>1</v>
       </c>
       <c r="K21" s="2">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="L21" s="2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M21" s="2">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="N21" s="2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="O21" s="2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="P21" s="2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="Q21" s="2">
         <v>0</v>
@@ -2989,54 +3005,54 @@
         <v>0</v>
       </c>
       <c r="U21" s="2">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="V21" s="2">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="W21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X21" s="2">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="Y21" s="2">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="Z21" s="2">
         <v>0.8</v>
       </c>
       <c r="AA21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH21" s="2">
-        <v>143</v>
+        <v>0</v>
       </c>
       <c r="AI21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:35">
-      <c r="A22" s="1" t="s">
-        <v>47</v>
+      <c r="A22" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="B22" s="2">
         <v>1</v>
@@ -3084,19 +3100,19 @@
         <v>1</v>
       </c>
       <c r="Q22" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R22" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S22" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T22" s="2">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="U22" s="2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="V22" s="2">
         <v>0.6</v>
@@ -3111,13 +3127,13 @@
         <v>1</v>
       </c>
       <c r="Z22" s="2">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AA22" s="2">
         <v>1</v>
       </c>
       <c r="AB22" s="2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AC22" s="2">
         <v>1</v>
@@ -3126,7 +3142,7 @@
         <v>1</v>
       </c>
       <c r="AE22" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF22" s="2">
         <v>1</v>
@@ -3135,15 +3151,15 @@
         <v>1</v>
       </c>
       <c r="AH22" s="2">
-        <v>260</v>
+        <v>25</v>
       </c>
       <c r="AI22" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:35">
-      <c r="A23" s="1" t="s">
-        <v>48</v>
+      <c r="A23" s="2" t="s">
+        <v>62</v>
       </c>
       <c r="B23" s="2">
         <v>1</v>
@@ -3158,7 +3174,7 @@
         <v>1</v>
       </c>
       <c r="F23" s="2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G23" s="2">
         <v>1</v>
@@ -3173,16 +3189,16 @@
         <v>1</v>
       </c>
       <c r="K23" s="2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="L23" s="2">
         <v>0.5</v>
       </c>
       <c r="M23" s="2">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="N23" s="2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="O23" s="2">
         <v>1</v>
@@ -3191,22 +3207,22 @@
         <v>1</v>
       </c>
       <c r="Q23" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R23" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S23" s="2">
         <v>1</v>
       </c>
       <c r="T23" s="2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="U23" s="2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="V23" s="2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="W23" s="2">
         <v>1</v>
@@ -3242,15 +3258,15 @@
         <v>1</v>
       </c>
       <c r="AH23" s="2">
-        <v>18</v>
+        <v>376</v>
       </c>
       <c r="AI23" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:35">
-      <c r="A24" s="1" t="s">
-        <v>49</v>
+      <c r="A24" s="2" t="s">
+        <v>63</v>
       </c>
       <c r="B24" s="2">
         <v>1</v>
@@ -3268,7 +3284,7 @@
         <v>0.5</v>
       </c>
       <c r="G24" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H24" s="2">
         <v>0.5</v>
@@ -3283,7 +3299,7 @@
         <v>1</v>
       </c>
       <c r="L24" s="2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M24" s="2">
         <v>1</v>
@@ -3292,16 +3308,16 @@
         <v>1</v>
       </c>
       <c r="O24" s="2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="P24" s="2">
         <v>1</v>
       </c>
       <c r="Q24" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R24" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S24" s="2">
         <v>1</v>
@@ -3340,24 +3356,24 @@
         <v>1</v>
       </c>
       <c r="AE24" s="2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AF24" s="2">
         <v>1</v>
       </c>
       <c r="AG24" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH24" s="2">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="AI24" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:35">
-      <c r="A25" s="1" t="s">
-        <v>50</v>
+      <c r="A25" s="2" t="s">
+        <v>64</v>
       </c>
       <c r="B25" s="2">
         <v>1</v>
@@ -3390,13 +3406,13 @@
         <v>1</v>
       </c>
       <c r="L25" s="2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M25" s="2">
         <v>1</v>
       </c>
       <c r="N25" s="2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="O25" s="2">
         <v>1</v>
@@ -3405,10 +3421,10 @@
         <v>1</v>
       </c>
       <c r="Q25" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R25" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S25" s="2">
         <v>1</v>
@@ -3420,7 +3436,7 @@
         <v>0.5</v>
       </c>
       <c r="V25" s="2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="W25" s="2">
         <v>1</v>
@@ -3432,7 +3448,7 @@
         <v>0.5</v>
       </c>
       <c r="Z25" s="2">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AA25" s="2">
         <v>1</v>
@@ -3456,15 +3472,15 @@
         <v>1</v>
       </c>
       <c r="AH25" s="2">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AI25" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:35">
-      <c r="A26" s="1" t="s">
-        <v>51</v>
+      <c r="A26" s="2" t="s">
+        <v>65</v>
       </c>
       <c r="B26" s="2">
         <v>1</v>
@@ -3479,7 +3495,7 @@
         <v>1</v>
       </c>
       <c r="F26" s="2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G26" s="2">
         <v>1</v>
@@ -3497,7 +3513,7 @@
         <v>1</v>
       </c>
       <c r="L26" s="2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M26" s="2">
         <v>1</v>
@@ -3515,7 +3531,7 @@
         <v>1</v>
       </c>
       <c r="R26" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S26" s="2">
         <v>1</v>
@@ -3533,13 +3549,13 @@
         <v>1</v>
       </c>
       <c r="X26" s="2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="Y26" s="2">
         <v>0.5</v>
       </c>
       <c r="Z26" s="2">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AA26" s="2">
         <v>1</v>
@@ -3563,7 +3579,7 @@
         <v>1</v>
       </c>
       <c r="AH26" s="2">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="AI26" s="2">
         <v>1</v>
@@ -3571,7 +3587,7 @@
     </row>
     <row r="27" spans="1:35">
       <c r="A27" s="1" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="B27" s="2">
         <v>1</v>
@@ -3601,7 +3617,7 @@
         <v>1</v>
       </c>
       <c r="K27" s="2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="L27" s="2">
         <v>1</v>
@@ -3610,10 +3626,10 @@
         <v>1</v>
       </c>
       <c r="N27" s="2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="O27" s="2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="P27" s="2">
         <v>1</v>
@@ -3622,19 +3638,19 @@
         <v>1</v>
       </c>
       <c r="R27" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S27" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T27" s="2">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="U27" s="2">
         <v>0.5</v>
       </c>
       <c r="V27" s="2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="W27" s="2">
         <v>1</v>
@@ -3643,7 +3659,7 @@
         <v>1</v>
       </c>
       <c r="Y27" s="2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="Z27" s="2">
         <v>1</v>
@@ -3652,7 +3668,7 @@
         <v>1</v>
       </c>
       <c r="AB27" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC27" s="2">
         <v>1</v>
@@ -3661,7 +3677,7 @@
         <v>1</v>
       </c>
       <c r="AE27" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF27" s="2">
         <v>1</v>
@@ -3670,7 +3686,7 @@
         <v>1</v>
       </c>
       <c r="AH27" s="2">
-        <v>9</v>
+        <v>780</v>
       </c>
       <c r="AI27" s="2">
         <v>1</v>
@@ -3678,7 +3694,7 @@
     </row>
     <row r="28" spans="1:35">
       <c r="A28" s="1" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="B28" s="2">
         <v>1</v>
@@ -3720,28 +3736,28 @@
         <v>1</v>
       </c>
       <c r="O28" s="2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="P28" s="2">
         <v>1</v>
       </c>
       <c r="Q28" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R28" s="2">
         <v>0</v>
       </c>
       <c r="S28" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T28" s="2">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="U28" s="2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="V28" s="2">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="W28" s="2">
         <v>1</v>
@@ -3777,7 +3793,7 @@
         <v>1</v>
       </c>
       <c r="AH28" s="2">
-        <v>87</v>
+        <v>228</v>
       </c>
       <c r="AI28" s="2">
         <v>1</v>
@@ -3785,7 +3801,7 @@
     </row>
     <row r="29" spans="1:35">
       <c r="A29" s="1" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="B29" s="2">
         <v>1</v>
@@ -3818,43 +3834,43 @@
         <v>1</v>
       </c>
       <c r="L29" s="2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M29" s="2">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="N29" s="2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="O29" s="2">
         <v>0.5</v>
       </c>
       <c r="P29" s="2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="Q29" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R29" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S29" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T29" s="2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="U29" s="2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="V29" s="2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="W29" s="2">
         <v>1</v>
       </c>
       <c r="X29" s="2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="Y29" s="2">
         <v>0.5</v>
@@ -3863,7 +3879,7 @@
         <v>0.8</v>
       </c>
       <c r="AA29" s="2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AB29" s="2">
         <v>1</v>
@@ -3875,7 +3891,7 @@
         <v>1</v>
       </c>
       <c r="AE29" s="2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AF29" s="2">
         <v>1</v>
@@ -3884,15 +3900,15 @@
         <v>1</v>
       </c>
       <c r="AH29" s="2">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="AI29" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:35">
       <c r="A30" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B30" s="2">
         <v>1</v>
@@ -3928,34 +3944,34 @@
         <v>1</v>
       </c>
       <c r="M30" s="2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="N30" s="2">
         <v>1</v>
       </c>
       <c r="O30" s="2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="P30" s="2">
         <v>1</v>
       </c>
       <c r="Q30" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R30" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S30" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T30" s="2">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="U30" s="2">
         <v>0.5</v>
       </c>
       <c r="V30" s="2">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="W30" s="2">
         <v>1</v>
@@ -3991,7 +4007,7 @@
         <v>1</v>
       </c>
       <c r="AH30" s="2">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AI30" s="2">
         <v>1</v>
@@ -3999,7 +4015,7 @@
     </row>
     <row r="31" spans="1:35">
       <c r="A31" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B31" s="2">
         <v>1</v>
@@ -4014,7 +4030,7 @@
         <v>1</v>
       </c>
       <c r="F31" s="2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G31" s="2">
         <v>1</v>
@@ -4041,13 +4057,13 @@
         <v>1</v>
       </c>
       <c r="O31" s="2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="P31" s="2">
         <v>1</v>
       </c>
       <c r="Q31" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R31" s="2">
         <v>0</v>
@@ -4059,16 +4075,16 @@
         <v>0</v>
       </c>
       <c r="U31" s="2">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="V31" s="2">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="W31" s="2">
         <v>1</v>
       </c>
       <c r="X31" s="2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="Y31" s="2">
         <v>0.5</v>
@@ -4092,21 +4108,21 @@
         <v>1</v>
       </c>
       <c r="AF31" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG31" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH31" s="2">
-        <v>0</v>
+        <v>87</v>
       </c>
       <c r="AI31" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:35">
       <c r="A32" s="1" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="B32" s="2">
         <v>1</v>
@@ -4118,13 +4134,13 @@
         <v>1</v>
       </c>
       <c r="E32" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F32" s="2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G32" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H32" s="2">
         <v>0.5</v>
@@ -4139,7 +4155,7 @@
         <v>0.5</v>
       </c>
       <c r="L32" s="2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M32" s="2">
         <v>1</v>
@@ -4148,7 +4164,7 @@
         <v>1</v>
       </c>
       <c r="O32" s="2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="P32" s="2">
         <v>1</v>
@@ -4169,16 +4185,16 @@
         <v>0.5</v>
       </c>
       <c r="V32" s="2">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="W32" s="2">
         <v>1</v>
       </c>
       <c r="X32" s="2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="Y32" s="2">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="Z32" s="2">
         <v>0.8</v>
@@ -4199,21 +4215,21 @@
         <v>1</v>
       </c>
       <c r="AF32" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG32" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH32" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AI32" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:35">
-      <c r="A33" s="2" t="s">
-        <v>57</v>
+      <c r="A33" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="B33" s="2">
         <v>1</v>
@@ -4225,31 +4241,31 @@
         <v>1</v>
       </c>
       <c r="E33" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F33" s="2">
         <v>0.5</v>
       </c>
       <c r="G33" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H33" s="2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="I33" s="2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="J33" s="2">
         <v>1</v>
       </c>
       <c r="K33" s="2">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="L33" s="2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M33" s="2">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="N33" s="2">
         <v>0.5</v>
@@ -4258,25 +4274,25 @@
         <v>0.5</v>
       </c>
       <c r="P33" s="2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="Q33" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R33" s="2">
         <v>0</v>
       </c>
       <c r="S33" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T33" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U33" s="2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="V33" s="2">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="W33" s="2">
         <v>0</v>
@@ -4291,19 +4307,19 @@
         <v>0.8</v>
       </c>
       <c r="AA33" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB33" s="2">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AC33" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD33" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE33" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF33" s="2">
         <v>1</v>
@@ -4312,15 +4328,15 @@
         <v>1</v>
       </c>
       <c r="AH33" s="2">
-        <v>86</v>
+        <v>143</v>
       </c>
       <c r="AI33" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:35">
-      <c r="A34" s="2" t="s">
-        <v>78</v>
+      <c r="A34" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="B34" s="2">
         <v>1</v>
@@ -4335,7 +4351,7 @@
         <v>1</v>
       </c>
       <c r="F34" s="2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G34" s="2">
         <v>1</v>
@@ -4368,28 +4384,28 @@
         <v>1</v>
       </c>
       <c r="Q34" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R34" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S34" s="2">
         <v>1</v>
       </c>
       <c r="T34" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U34" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V34" s="2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="W34" s="2">
         <v>1</v>
       </c>
       <c r="X34" s="2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="Y34" s="2">
         <v>0.5</v>
@@ -4419,15 +4435,15 @@
         <v>1</v>
       </c>
       <c r="AH34" s="2">
-        <v>488</v>
+        <v>1</v>
       </c>
       <c r="AI34" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:35">
-      <c r="A35" s="2" t="s">
-        <v>79</v>
+      <c r="A35" s="1" t="s">
+        <v>82</v>
       </c>
       <c r="B35" s="2">
         <v>1</v>
@@ -4442,7 +4458,7 @@
         <v>1</v>
       </c>
       <c r="F35" s="2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G35" s="2">
         <v>1</v>
@@ -4463,7 +4479,7 @@
         <v>1</v>
       </c>
       <c r="M35" s="2">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="N35" s="2">
         <v>1</v>
@@ -4478,25 +4494,25 @@
         <v>1</v>
       </c>
       <c r="R35" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S35" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T35" s="2">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="U35" s="2">
         <v>0</v>
       </c>
       <c r="V35" s="2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="W35" s="2">
         <v>1</v>
       </c>
       <c r="X35" s="2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="Y35" s="2">
         <v>0.5</v>
@@ -4523,18 +4539,18 @@
         <v>1</v>
       </c>
       <c r="AG35" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH35" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AI35" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:35">
-      <c r="A36" s="2" t="s">
-        <v>66</v>
+      <c r="A36" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="B36" s="2">
         <v>1</v>
@@ -4549,7 +4565,7 @@
         <v>1</v>
       </c>
       <c r="F36" s="2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G36" s="2">
         <v>1</v>
@@ -4573,37 +4589,37 @@
         <v>1</v>
       </c>
       <c r="N36" s="2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="O36" s="2">
         <v>1</v>
       </c>
       <c r="P36" s="2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="Q36" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R36" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S36" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T36" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U36" s="2">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="V36" s="2">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="W36" s="2">
         <v>1</v>
       </c>
       <c r="X36" s="2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="Y36" s="2">
         <v>0.5</v>
@@ -4633,15 +4649,15 @@
         <v>1</v>
       </c>
       <c r="AH36" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AI36" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:35">
-      <c r="A37" s="2" t="s">
-        <v>67</v>
+      <c r="A37" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="B37" s="2">
         <v>1</v>
@@ -4671,46 +4687,46 @@
         <v>1</v>
       </c>
       <c r="K37" s="2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="L37" s="2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M37" s="2">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="N37" s="2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="O37" s="2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="P37" s="2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="Q37" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R37" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S37" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T37" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U37" s="2">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="V37" s="2">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="W37" s="2">
         <v>1</v>
       </c>
       <c r="X37" s="2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="Y37" s="2">
         <v>0.5</v>
@@ -4740,15 +4756,15 @@
         <v>1</v>
       </c>
       <c r="AH37" s="2">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="AI37" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:35">
-      <c r="A38" s="2" t="s">
-        <v>71</v>
+      <c r="A38" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="B38" s="2">
         <v>1</v>
@@ -4778,7 +4794,7 @@
         <v>1</v>
       </c>
       <c r="K38" s="2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="L38" s="2">
         <v>1</v>
@@ -4787,10 +4803,10 @@
         <v>1</v>
       </c>
       <c r="N38" s="2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="O38" s="2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="P38" s="2">
         <v>1</v>
@@ -4799,13 +4815,13 @@
         <v>1</v>
       </c>
       <c r="R38" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S38" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T38" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U38" s="2">
         <v>0.5</v>
@@ -4817,13 +4833,13 @@
         <v>1</v>
       </c>
       <c r="X38" s="2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="Y38" s="2">
         <v>0.5</v>
       </c>
       <c r="Z38" s="2">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AA38" s="2">
         <v>1</v>
@@ -4838,7 +4854,7 @@
         <v>1</v>
       </c>
       <c r="AE38" s="2">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AF38" s="2">
         <v>1</v>
@@ -4847,15 +4863,15 @@
         <v>1</v>
       </c>
       <c r="AH38" s="2">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AI38" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:35">
-      <c r="A39" s="2" t="s">
-        <v>58</v>
+      <c r="A39" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="B39" s="2">
         <v>1</v>
@@ -4891,7 +4907,7 @@
         <v>1</v>
       </c>
       <c r="M39" s="2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="N39" s="2">
         <v>1</v>
@@ -4903,19 +4919,19 @@
         <v>1</v>
       </c>
       <c r="Q39" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R39" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S39" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T39" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U39" s="2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="V39" s="2">
         <v>1</v>
@@ -4924,10 +4940,10 @@
         <v>1</v>
       </c>
       <c r="X39" s="2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="Y39" s="2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="Z39" s="2">
         <v>0.8</v>
@@ -4954,7 +4970,7 @@
         <v>1</v>
       </c>
       <c r="AH39" s="2">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="AI39" s="2">
         <v>1</v>
@@ -4962,19 +4978,19 @@
     </row>
     <row r="40" spans="1:35">
       <c r="A40" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B40" s="2">
         <v>1</v>
       </c>
       <c r="C40" s="2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="D40" s="2">
         <v>1</v>
       </c>
       <c r="E40" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F40" s="2">
         <v>0.5</v>
@@ -4983,10 +4999,10 @@
         <v>1</v>
       </c>
       <c r="H40" s="2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="I40" s="2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="J40" s="2">
         <v>1</v>
@@ -4995,13 +5011,13 @@
         <v>1</v>
       </c>
       <c r="L40" s="2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M40" s="2">
         <v>1</v>
       </c>
       <c r="N40" s="2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="O40" s="2">
         <v>0.5</v>
@@ -5010,10 +5026,10 @@
         <v>1</v>
       </c>
       <c r="Q40" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R40" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S40" s="2">
         <v>1</v>
@@ -5025,16 +5041,16 @@
         <v>1</v>
       </c>
       <c r="V40" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W40" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X40" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y40" s="2">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="Z40" s="2">
         <v>0.8</v>
@@ -5043,7 +5059,7 @@
         <v>1</v>
       </c>
       <c r="AB40" s="2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AC40" s="2">
         <v>1</v>
@@ -5061,15 +5077,15 @@
         <v>1</v>
       </c>
       <c r="AH40" s="2">
-        <v>1</v>
+        <v>86</v>
       </c>
       <c r="AI40" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:35">
-      <c r="A41" s="2" t="s">
-        <v>60</v>
+      <c r="A41" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="B41" s="2">
         <v>1</v>
@@ -5105,19 +5121,19 @@
         <v>1</v>
       </c>
       <c r="M41" s="2">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="N41" s="2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="O41" s="2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="P41" s="2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="Q41" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R41" s="2">
         <v>0</v>
@@ -5126,13 +5142,13 @@
         <v>0</v>
       </c>
       <c r="T41" s="2">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="U41" s="2">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="V41" s="2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="W41" s="2">
         <v>1</v>
@@ -5147,7 +5163,7 @@
         <v>0.8</v>
       </c>
       <c r="AA41" s="2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AB41" s="2">
         <v>1</v>
@@ -5159,13 +5175,13 @@
         <v>1</v>
       </c>
       <c r="AE41" s="2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AF41" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG41" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH41" s="2">
         <v>0</v>
@@ -5175,8 +5191,8 @@
       </c>
     </row>
     <row r="42" spans="1:35">
-      <c r="A42" s="2" t="s">
-        <v>61</v>
+      <c r="A42" s="1" t="s">
+        <v>83</v>
       </c>
       <c r="B42" s="2">
         <v>1</v>
@@ -5212,19 +5228,19 @@
         <v>1</v>
       </c>
       <c r="M42" s="2">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="N42" s="2">
         <v>1</v>
       </c>
       <c r="O42" s="2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="P42" s="2">
         <v>1</v>
       </c>
       <c r="Q42" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R42" s="2">
         <v>1</v>
@@ -5239,16 +5255,16 @@
         <v>1</v>
       </c>
       <c r="V42" s="2">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="W42" s="2">
         <v>1</v>
       </c>
       <c r="X42" s="2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="Y42" s="2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="Z42" s="2">
         <v>0.8</v>
@@ -5275,15 +5291,15 @@
         <v>1</v>
       </c>
       <c r="AH42" s="2">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="AI42" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:35">
-      <c r="A43" s="2" t="s">
-        <v>62</v>
+      <c r="A43" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="B43" s="2">
         <v>1</v>
@@ -5298,7 +5314,7 @@
         <v>1</v>
       </c>
       <c r="F43" s="2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G43" s="2">
         <v>1</v>
@@ -5316,7 +5332,7 @@
         <v>1</v>
       </c>
       <c r="L43" s="2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M43" s="2">
         <v>1</v>
@@ -5343,7 +5359,7 @@
         <v>0.5</v>
       </c>
       <c r="U43" s="2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="V43" s="2">
         <v>1</v>
@@ -5355,10 +5371,10 @@
         <v>1</v>
       </c>
       <c r="Y43" s="2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="Z43" s="2">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AA43" s="2">
         <v>1</v>
@@ -5382,15 +5398,15 @@
         <v>1</v>
       </c>
       <c r="AH43" s="2">
-        <v>376</v>
+        <v>93</v>
       </c>
       <c r="AI43" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:35">
-      <c r="A44" s="2" t="s">
-        <v>63</v>
+      <c r="A44" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="B44" s="2">
         <v>1</v>
@@ -5405,7 +5421,7 @@
         <v>1</v>
       </c>
       <c r="F44" s="2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G44" s="2">
         <v>1</v>
@@ -5423,7 +5439,7 @@
         <v>1</v>
       </c>
       <c r="L44" s="2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M44" s="2">
         <v>1</v>
@@ -5432,7 +5448,7 @@
         <v>1</v>
       </c>
       <c r="O44" s="2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="P44" s="2">
         <v>1</v>
@@ -5444,34 +5460,34 @@
         <v>0</v>
       </c>
       <c r="S44" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T44" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U44" s="2">
         <v>0.5</v>
       </c>
       <c r="V44" s="2">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="W44" s="2">
         <v>1</v>
       </c>
       <c r="X44" s="2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="Y44" s="2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="Z44" s="2">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AA44" s="2">
         <v>1</v>
       </c>
       <c r="AB44" s="2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AC44" s="2">
         <v>1</v>
@@ -5480,24 +5496,24 @@
         <v>1</v>
       </c>
       <c r="AE44" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF44" s="2">
         <v>1</v>
       </c>
       <c r="AG44" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH44" s="2">
-        <v>3</v>
+        <v>260</v>
       </c>
       <c r="AI44" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:35">
-      <c r="A45" s="2" t="s">
-        <v>64</v>
+      <c r="A45" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="B45" s="2">
         <v>1</v>
@@ -5530,13 +5546,13 @@
         <v>1</v>
       </c>
       <c r="L45" s="2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M45" s="2">
         <v>1</v>
       </c>
       <c r="N45" s="2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="O45" s="2">
         <v>1</v>
@@ -5551,16 +5567,16 @@
         <v>0</v>
       </c>
       <c r="S45" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T45" s="2">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="U45" s="2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="V45" s="2">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="W45" s="2">
         <v>1</v>
@@ -5569,7 +5585,7 @@
         <v>1</v>
       </c>
       <c r="Y45" s="2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="Z45" s="2">
         <v>1</v>
@@ -5578,7 +5594,7 @@
         <v>1</v>
       </c>
       <c r="AB45" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC45" s="2">
         <v>1</v>
@@ -5587,7 +5603,7 @@
         <v>1</v>
       </c>
       <c r="AE45" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF45" s="2">
         <v>1</v>
@@ -5596,15 +5612,15 @@
         <v>1</v>
       </c>
       <c r="AH45" s="2">
-        <v>24</v>
+        <v>440</v>
       </c>
       <c r="AI45" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:35">
-      <c r="A46" s="2" t="s">
-        <v>65</v>
+      <c r="A46" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="B46" s="2">
         <v>1</v>
@@ -5637,7 +5653,7 @@
         <v>1</v>
       </c>
       <c r="L46" s="2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M46" s="2">
         <v>1</v>
@@ -5655,7 +5671,7 @@
         <v>1</v>
       </c>
       <c r="R46" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S46" s="2">
         <v>1</v>
@@ -5667,7 +5683,7 @@
         <v>0.5</v>
       </c>
       <c r="V46" s="2">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="W46" s="2">
         <v>1</v>
@@ -5676,7 +5692,7 @@
         <v>1</v>
       </c>
       <c r="Y46" s="2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="Z46" s="2">
         <v>1</v>
@@ -5703,9 +5719,437 @@
         <v>1</v>
       </c>
       <c r="AH46" s="2">
-        <v>24</v>
+        <v>488</v>
       </c>
       <c r="AI46" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:35">
+      <c r="A47" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B47" s="2">
+        <v>1</v>
+      </c>
+      <c r="C47" s="2">
+        <v>1</v>
+      </c>
+      <c r="D47" s="2">
+        <v>1</v>
+      </c>
+      <c r="E47" s="2">
+        <v>1</v>
+      </c>
+      <c r="F47" s="2">
+        <v>1</v>
+      </c>
+      <c r="G47" s="2">
+        <v>1</v>
+      </c>
+      <c r="H47" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="I47" s="2">
+        <v>1</v>
+      </c>
+      <c r="J47" s="2">
+        <v>1</v>
+      </c>
+      <c r="K47" s="2">
+        <v>1</v>
+      </c>
+      <c r="L47" s="2">
+        <v>1</v>
+      </c>
+      <c r="M47" s="2">
+        <v>1</v>
+      </c>
+      <c r="N47" s="2">
+        <v>1</v>
+      </c>
+      <c r="O47" s="2">
+        <v>1</v>
+      </c>
+      <c r="P47" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q47" s="2">
+        <v>1</v>
+      </c>
+      <c r="R47" s="2">
+        <v>1</v>
+      </c>
+      <c r="S47" s="2">
+        <v>1</v>
+      </c>
+      <c r="T47" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="U47" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="V47" s="2">
+        <v>1</v>
+      </c>
+      <c r="W47" s="2">
+        <v>1</v>
+      </c>
+      <c r="X47" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y47" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z47" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="AA47" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB47" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC47" s="2">
+        <v>1</v>
+      </c>
+      <c r="AD47" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE47" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF47" s="2">
+        <v>1</v>
+      </c>
+      <c r="AG47" s="2">
+        <v>1</v>
+      </c>
+      <c r="AH47" s="2">
+        <v>488</v>
+      </c>
+      <c r="AI47" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:35">
+      <c r="A48" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B48" s="2">
+        <v>1</v>
+      </c>
+      <c r="C48" s="2">
+        <v>1</v>
+      </c>
+      <c r="D48" s="2">
+        <v>1</v>
+      </c>
+      <c r="E48" s="2">
+        <v>1</v>
+      </c>
+      <c r="F48" s="2">
+        <v>1</v>
+      </c>
+      <c r="G48" s="2">
+        <v>1</v>
+      </c>
+      <c r="H48" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="I48" s="2">
+        <v>1</v>
+      </c>
+      <c r="J48" s="2">
+        <v>1</v>
+      </c>
+      <c r="K48" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="L48" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="M48" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="N48" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="O48" s="2">
+        <v>1</v>
+      </c>
+      <c r="P48" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q48" s="2">
+        <v>0</v>
+      </c>
+      <c r="R48" s="2">
+        <v>0</v>
+      </c>
+      <c r="S48" s="2">
+        <v>1</v>
+      </c>
+      <c r="T48" s="2">
+        <v>1</v>
+      </c>
+      <c r="U48" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="V48" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="W48" s="2">
+        <v>1</v>
+      </c>
+      <c r="X48" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y48" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="Z48" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="AA48" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB48" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC48" s="2">
+        <v>1</v>
+      </c>
+      <c r="AD48" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE48" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF48" s="2">
+        <v>1</v>
+      </c>
+      <c r="AG48" s="2">
+        <v>1</v>
+      </c>
+      <c r="AH48" s="2">
+        <v>18</v>
+      </c>
+      <c r="AI48" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:35">
+      <c r="A49" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B49" s="2">
+        <v>1</v>
+      </c>
+      <c r="C49" s="2">
+        <v>1</v>
+      </c>
+      <c r="D49" s="2">
+        <v>1</v>
+      </c>
+      <c r="E49" s="2">
+        <v>1</v>
+      </c>
+      <c r="F49" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="G49" s="2">
+        <v>1</v>
+      </c>
+      <c r="H49" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="I49" s="2">
+        <v>1</v>
+      </c>
+      <c r="J49" s="2">
+        <v>1</v>
+      </c>
+      <c r="K49" s="2">
+        <v>1</v>
+      </c>
+      <c r="L49" s="2">
+        <v>1</v>
+      </c>
+      <c r="M49" s="2">
+        <v>1</v>
+      </c>
+      <c r="N49" s="2">
+        <v>1</v>
+      </c>
+      <c r="O49" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="P49" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q49" s="2">
+        <v>1</v>
+      </c>
+      <c r="R49" s="2">
+        <v>0</v>
+      </c>
+      <c r="S49" s="2">
+        <v>0</v>
+      </c>
+      <c r="T49" s="2">
+        <v>0</v>
+      </c>
+      <c r="U49" s="2">
+        <v>0</v>
+      </c>
+      <c r="V49" s="2">
+        <v>1</v>
+      </c>
+      <c r="W49" s="2">
+        <v>1</v>
+      </c>
+      <c r="X49" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="Y49" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="Z49" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="AA49" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB49" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC49" s="2">
+        <v>1</v>
+      </c>
+      <c r="AD49" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE49" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF49" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG49" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH49" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI49" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:35">
+      <c r="A50" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B50" s="2">
+        <v>1</v>
+      </c>
+      <c r="C50" s="2">
+        <v>1</v>
+      </c>
+      <c r="D50" s="2">
+        <v>1</v>
+      </c>
+      <c r="E50" s="2">
+        <v>1</v>
+      </c>
+      <c r="F50" s="2">
+        <v>1</v>
+      </c>
+      <c r="G50" s="2">
+        <v>0</v>
+      </c>
+      <c r="H50" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="I50" s="2">
+        <v>1</v>
+      </c>
+      <c r="J50" s="2">
+        <v>1</v>
+      </c>
+      <c r="K50" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="L50" s="2">
+        <v>1</v>
+      </c>
+      <c r="M50" s="2">
+        <v>1</v>
+      </c>
+      <c r="N50" s="2">
+        <v>1</v>
+      </c>
+      <c r="O50" s="2">
+        <v>1</v>
+      </c>
+      <c r="P50" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q50" s="2">
+        <v>0</v>
+      </c>
+      <c r="R50" s="2">
+        <v>0</v>
+      </c>
+      <c r="S50" s="2">
+        <v>0</v>
+      </c>
+      <c r="T50" s="2">
+        <v>0</v>
+      </c>
+      <c r="U50" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="V50" s="2">
+        <v>0</v>
+      </c>
+      <c r="W50" s="2">
+        <v>1</v>
+      </c>
+      <c r="X50" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y50" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="Z50" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="AA50" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB50" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC50" s="2">
+        <v>1</v>
+      </c>
+      <c r="AD50" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE50" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF50" s="2">
+        <v>1</v>
+      </c>
+      <c r="AG50" s="2">
+        <v>1</v>
+      </c>
+      <c r="AH50" s="2">
+        <v>3</v>
+      </c>
+      <c r="AI50" s="2">
         <v>1</v>
       </c>
     </row>

--- a/Chunk7-Usability/method_scoring.xlsx
+++ b/Chunk7-Usability/method_scoring.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/duohongrui/Desktop/simbenchmark/Chunk7-Usability/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/duohongrui/Desktop/sim-article/GB/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B38CA20-610A-DC4F-9BB9-13ADEB27F9F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFFBFD95-6C3E-084B-A3B6-91407CEE76CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{CA7C452C-7A53-8B4D-B1F8-0FF38FECB6A5}"/>
   </bookViews>
@@ -730,9 +730,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F0F0ABD-1331-E548-9824-1B9EE713056C}">
   <dimension ref="A1:AB50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="110" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2867,7 +2867,7 @@
         <v>1</v>
       </c>
       <c r="L25" s="2">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="M25" s="2">
         <v>1</v>
@@ -3555,7 +3555,7 @@
         <v>0.8</v>
       </c>
       <c r="L33" s="2">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="M33" s="2">
         <v>0.5</v>
@@ -3813,7 +3813,7 @@
         <v>1</v>
       </c>
       <c r="L36" s="2">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="M36" s="2">
         <v>1</v>
@@ -3899,7 +3899,7 @@
         <v>0.8</v>
       </c>
       <c r="L37" s="2">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="M37" s="2">
         <v>0.5</v>
@@ -3985,7 +3985,7 @@
         <v>1</v>
       </c>
       <c r="L38" s="2">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="M38" s="2">
         <v>0.5</v>
@@ -4157,7 +4157,7 @@
         <v>1</v>
       </c>
       <c r="L40" s="2">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="M40" s="2">
         <v>0.5</v>
@@ -4243,7 +4243,7 @@
         <v>0.8</v>
       </c>
       <c r="L41" s="2">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="M41" s="2">
         <v>0.5</v>
@@ -4845,7 +4845,7 @@
         <v>0.8</v>
       </c>
       <c r="L48" s="2">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="M48" s="2">
         <v>1</v>
